--- a/data/trans_orig/P6704-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>50527</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38499</v>
+        <v>40310</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61290</v>
+        <v>62449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4011859475169949</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3056821929818163</v>
+        <v>0.3200618505782187</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4866381205047658</v>
+        <v>0.4958433173908306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -764,19 +764,19 @@
         <v>33102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23750</v>
+        <v>24094</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42525</v>
+        <v>43289</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3884176490216572</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2786883740973857</v>
+        <v>0.2827224759396579</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4989899511050076</v>
+        <v>0.5079500894931837</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -785,19 +785,19 @@
         <v>83629</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69524</v>
+        <v>68728</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98423</v>
+        <v>98204</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3960329770188712</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3292370558525877</v>
+        <v>0.3254682000858784</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.466090133358201</v>
+        <v>0.4650522410962731</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>10336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5489</v>
+        <v>5588</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19260</v>
+        <v>18331</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08206368638411948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04358297530420484</v>
+        <v>0.04436797634182604</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1529222533067993</v>
+        <v>0.1455508365781231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -835,19 +835,19 @@
         <v>5258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2004</v>
+        <v>2037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12036</v>
+        <v>12049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06170256741270087</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02351379267467395</v>
+        <v>0.02389983791688996</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1412258833784026</v>
+        <v>0.1413884867133164</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -856,19 +856,19 @@
         <v>15594</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9100</v>
+        <v>8976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25784</v>
+        <v>24743</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07384644072630384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04309219383382826</v>
+        <v>0.04250535608642676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1221001029133093</v>
+        <v>0.1171734194271149</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>37290</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27320</v>
+        <v>27671</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48113</v>
+        <v>47685</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2960842633511926</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2169220730229369</v>
+        <v>0.2197078582041324</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3820162755722416</v>
+        <v>0.3786148416327954</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -906,19 +906,19 @@
         <v>22245</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14832</v>
+        <v>14699</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31952</v>
+        <v>31672</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2610264631454325</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1740436329988931</v>
+        <v>0.1724733630830916</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3749225366845396</v>
+        <v>0.3716402839518877</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -927,19 +927,19 @@
         <v>59536</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46635</v>
+        <v>46399</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74845</v>
+        <v>73146</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2819357994618684</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2208425439234327</v>
+        <v>0.2197242824638401</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3544367994386219</v>
+        <v>0.3463898739648269</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>7625</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3559</v>
+        <v>3575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14420</v>
+        <v>13936</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06054026417227135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02825967003503389</v>
+        <v>0.02838763756632202</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1144971034235048</v>
+        <v>0.110648585064631</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -977,19 +977,19 @@
         <v>6864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2128</v>
+        <v>2156</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14737</v>
+        <v>15167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08054061074578682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02497098844510781</v>
+        <v>0.0252963561095418</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.172928191930052</v>
+        <v>0.1779683905859611</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -998,19 +998,19 @@
         <v>14489</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7839</v>
+        <v>7553</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24554</v>
+        <v>23410</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06861191098435113</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03712415496026911</v>
+        <v>0.03576997983879119</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1162779649833406</v>
+        <v>0.1108578599650455</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>20167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12489</v>
+        <v>12199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29609</v>
+        <v>29110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1601258385754216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09916627466295555</v>
+        <v>0.096859704803142</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2350907597483676</v>
+        <v>0.2311359190762282</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -1048,19 +1048,19 @@
         <v>17753</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10836</v>
+        <v>10195</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27200</v>
+        <v>25109</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2083127096744226</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1271542737460176</v>
+        <v>0.1196316335146219</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3191676666534328</v>
+        <v>0.2946314546103449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -1069,19 +1069,19 @@
         <v>37920</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27427</v>
+        <v>26635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51311</v>
+        <v>49600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1795728718086055</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1298829905646468</v>
+        <v>0.1261339596432759</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2429877467326353</v>
+        <v>0.2348875205296429</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>34706</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25180</v>
+        <v>24157</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47550</v>
+        <v>48484</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2014975206619618</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1461922563862504</v>
+        <v>0.1402524401998187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2760682868013435</v>
+        <v>0.28149011895562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1194,19 +1194,19 @@
         <v>25859</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16835</v>
+        <v>16213</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36004</v>
+        <v>35328</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2124948247059119</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1383456617124493</v>
+        <v>0.1332321838366811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2958645003610479</v>
+        <v>0.2903093320887842</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -1215,19 +1215,19 @@
         <v>60564</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46347</v>
+        <v>46164</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77124</v>
+        <v>77242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2060505356534115</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.157680669145263</v>
+        <v>0.1570561958202369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2623900392079139</v>
+        <v>0.2627920938911857</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>16377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9755</v>
+        <v>9746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25239</v>
+        <v>24927</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09508419420891942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05663633359932358</v>
+        <v>0.0565860222183253</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1465366711908994</v>
+        <v>0.1447234782204961</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1265,19 +1265,19 @@
         <v>15615</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8341</v>
+        <v>9057</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24860</v>
+        <v>26090</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1283135469417711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0685404760296648</v>
+        <v>0.07442399408792179</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2042876442546388</v>
+        <v>0.214391613095993</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -1286,19 +1286,19 @@
         <v>31992</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22559</v>
+        <v>22318</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45712</v>
+        <v>44260</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1088415424230096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07674947564332643</v>
+        <v>0.07592993485743459</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1555202840242436</v>
+        <v>0.1505785505989857</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>33828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24428</v>
+        <v>23733</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45812</v>
+        <v>45411</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1964029681459817</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1418256957432075</v>
+        <v>0.1377903434606789</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2659773928026147</v>
+        <v>0.2636469573082854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -1336,19 +1336,19 @@
         <v>27549</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18642</v>
+        <v>18920</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38033</v>
+        <v>36819</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2263821809954021</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1531921398700326</v>
+        <v>0.1554762928216565</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3125392088214153</v>
+        <v>0.3025573796295871</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -1357,19 +1357,19 @@
         <v>61377</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47629</v>
+        <v>47988</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76038</v>
+        <v>74999</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2088147196979779</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.162041488486128</v>
+        <v>0.1632625194330334</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2586959087726784</v>
+        <v>0.2551587857476714</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>12042</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6700</v>
+        <v>6351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22721</v>
+        <v>21908</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06991477620564462</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0389007279426763</v>
+        <v>0.03687364778376852</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1319128456679383</v>
+        <v>0.1271944726037354</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1407,19 +1407,19 @@
         <v>6454</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13190</v>
+        <v>13157</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05303649496775878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0189258678679851</v>
+        <v>0.01889750095958499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1083933717258914</v>
+        <v>0.1081209077411308</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1428,19 +1428,19 @@
         <v>18496</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10459</v>
+        <v>11230</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28330</v>
+        <v>29701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06292696653894056</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03558381368399597</v>
+        <v>0.03820725738064233</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09638470432965865</v>
+        <v>0.1010469894907001</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>75286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60923</v>
+        <v>61973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88442</v>
+        <v>89969</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4371005407774924</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3537090115052878</v>
+        <v>0.3598039407456156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5134838104459066</v>
+        <v>0.5223442177681037</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -1478,19 +1478,19 @@
         <v>46215</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35440</v>
+        <v>36387</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58499</v>
+        <v>58745</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3797729523891562</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2912309632044029</v>
+        <v>0.2990131106966957</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.480719519627858</v>
+        <v>0.4827368900570758</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>109</v>
@@ -1499,19 +1499,19 @@
         <v>121501</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>104804</v>
+        <v>103114</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140086</v>
+        <v>139120</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4133662356866605</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3565609394983055</v>
+        <v>0.3508120973955939</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4765980169132375</v>
+        <v>0.4733083679792234</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>22276</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14439</v>
+        <v>15340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31696</v>
+        <v>32192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1566761390155085</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1015524481492308</v>
+        <v>0.1078908153107307</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2229330586703578</v>
+        <v>0.2264203290254263</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1624,19 +1624,19 @@
         <v>29483</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20767</v>
+        <v>20935</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38633</v>
+        <v>39239</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3667528448870494</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2583363265939815</v>
+        <v>0.2604171124294851</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4805731157751078</v>
+        <v>0.4881097335294904</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -1645,19 +1645,19 @@
         <v>51759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39895</v>
+        <v>39889</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64244</v>
+        <v>65670</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2325534924546301</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1792481301816345</v>
+        <v>0.179220202743733</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2886481858954776</v>
+        <v>0.2950583167357834</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>42930</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32912</v>
+        <v>31434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54950</v>
+        <v>54590</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3019406218801746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2314847249714567</v>
+        <v>0.2210879410890898</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.386486124839396</v>
+        <v>0.3839555021621757</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1695,19 +1695,19 @@
         <v>16795</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9483</v>
+        <v>10546</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24652</v>
+        <v>24979</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2089188311977861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1179600982093604</v>
+        <v>0.1311847466469261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3066632834342894</v>
+        <v>0.310721772780487</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -1716,19 +1716,19 @@
         <v>59724</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>46730</v>
+        <v>47637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74409</v>
+        <v>75639</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.268342192868899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2099614494385262</v>
+        <v>0.2140365407688462</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3343203360759347</v>
+        <v>0.3398500102208594</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>36383</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27417</v>
+        <v>26593</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47074</v>
+        <v>47706</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2558978478365544</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1928319926720052</v>
+        <v>0.1870375418188343</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3310865529777779</v>
+        <v>0.3355382183193529</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -1766,19 +1766,19 @@
         <v>23896</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16260</v>
+        <v>15856</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33234</v>
+        <v>32590</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2972549047280225</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2022645468374524</v>
+        <v>0.1972360261794078</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4134148882532294</v>
+        <v>0.4054066960598905</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -1787,19 +1787,19 @@
         <v>60279</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48048</v>
+        <v>46909</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72989</v>
+        <v>73647</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2708355536137703</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2158825940300255</v>
+        <v>0.2107630710654521</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3279405662343228</v>
+        <v>0.3308997032268646</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>29996</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20728</v>
+        <v>20794</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39817</v>
+        <v>40670</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2109723852800257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1457855792181857</v>
+        <v>0.146252653111341</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2800485224141489</v>
+        <v>0.2860494152843526</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1837,19 +1837,19 @@
         <v>8243</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3508</v>
+        <v>3783</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16419</v>
+        <v>15662</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1025439324798549</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04364134201219274</v>
+        <v>0.04705551381698134</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2042480112402841</v>
+        <v>0.1948254243157601</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -1858,19 +1858,19 @@
         <v>38239</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27359</v>
+        <v>27936</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50242</v>
+        <v>50614</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1718092424563442</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1229245367061748</v>
+        <v>0.1255172668507118</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2257367668933466</v>
+        <v>0.2274094735847294</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>10594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5727</v>
+        <v>4859</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18437</v>
+        <v>18309</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0745130059877368</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04027965019417044</v>
+        <v>0.03417490353071208</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1296725555630023</v>
+        <v>0.1287735194394068</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5970</v>
+        <v>6051</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02452948670728705</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07425898098389842</v>
+        <v>0.07527165185346761</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -1929,19 +1929,19 @@
         <v>12566</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6966</v>
+        <v>6763</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20496</v>
+        <v>20169</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05645951860635636</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03129776385999893</v>
+        <v>0.03038556669560872</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09209113963671695</v>
+        <v>0.0906218763488188</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>19118</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11631</v>
+        <v>11822</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28897</v>
+        <v>28473</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1339837551822324</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08151247805416906</v>
+        <v>0.08284925430552108</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2025166842478898</v>
+        <v>0.1995439711165008</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2054,19 +2054,19 @@
         <v>19184</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12255</v>
+        <v>11936</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28853</v>
+        <v>28680</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1872605301665676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1196201198751545</v>
+        <v>0.1165117359623537</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2816333113086461</v>
+        <v>0.2799488250146346</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2075,19 +2075,19 @@
         <v>38302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26939</v>
+        <v>28339</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52140</v>
+        <v>53070</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1562491722995488</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.109892850717923</v>
+        <v>0.1156049693325619</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2126991010112302</v>
+        <v>0.2164913963826858</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>46615</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34226</v>
+        <v>35949</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>58418</v>
+        <v>58987</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3266894616607923</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.23986086512934</v>
+        <v>0.2519412888754287</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4094084360308541</v>
+        <v>0.4133976541995813</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -2125,19 +2125,19 @@
         <v>23921</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16429</v>
+        <v>15735</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>34518</v>
+        <v>34396</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2334924485169585</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1603644694381818</v>
+        <v>0.1535929472467651</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3369295386265919</v>
+        <v>0.3357417632444061</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>65</v>
@@ -2146,19 +2146,19 @@
         <v>70536</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>56762</v>
+        <v>57956</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>85913</v>
+        <v>87292</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2877405881160703</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2315530765348603</v>
+        <v>0.2364246030277266</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3504674234774999</v>
+        <v>0.356094156695458</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>49969</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37565</v>
+        <v>38378</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62952</v>
+        <v>61418</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3501916987193552</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2632657381720319</v>
+        <v>0.2689593811459767</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4411802160612161</v>
+        <v>0.4304347134726369</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -2196,19 +2196,19 @@
         <v>43997</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34306</v>
+        <v>33544</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55728</v>
+        <v>54719</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4294582892796115</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3348607245277103</v>
+        <v>0.3274208395308109</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5439599070673107</v>
+        <v>0.5341180680607948</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>89</v>
@@ -2217,19 +2217,19 @@
         <v>93966</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>77741</v>
+        <v>78521</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>110081</v>
+        <v>109378</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3833187733745042</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3171329852667236</v>
+        <v>0.3203132325101203</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4490606016789569</v>
+        <v>0.4461903392214789</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>14923</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7411</v>
+        <v>7442</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25583</v>
+        <v>24644</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1045848870055309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05193572342785294</v>
+        <v>0.05215402687303943</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1792949328801544</v>
+        <v>0.1727085897973112</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2267,19 +2267,19 @@
         <v>11552</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6300</v>
+        <v>6431</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18123</v>
+        <v>18699</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1127567245762381</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06148987910720879</v>
+        <v>0.06276874072479677</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1768962227746059</v>
+        <v>0.1825242913855187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -2288,19 +2288,19 @@
         <v>26475</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17662</v>
+        <v>17640</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39677</v>
+        <v>40269</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1080000594175294</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07205043965206841</v>
+        <v>0.07196148783877192</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1618578845378477</v>
+        <v>0.1642705696143686</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>12064</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6264</v>
+        <v>6110</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21850</v>
+        <v>20944</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08455019743208914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04390287454408853</v>
+        <v>0.04281992377553099</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1531306353475056</v>
+        <v>0.1467778584506678</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2338,19 +2338,19 @@
         <v>3794</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8944</v>
+        <v>9146</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03703200746062428</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009351821735925143</v>
+        <v>0.009148202207966876</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08729936444240376</v>
+        <v>0.08927889080401863</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -2359,19 +2359,19 @@
         <v>15858</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9180</v>
+        <v>9047</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>25666</v>
+        <v>25532</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06469140679234733</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03744685349877101</v>
+        <v>0.03690423951113633</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1047006247513565</v>
+        <v>0.1041555773408865</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>18496</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11318</v>
+        <v>11200</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>27766</v>
+        <v>27459</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2246956560482599</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1374954151711412</v>
+        <v>0.1360701183981848</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3373228331569335</v>
+        <v>0.333593498232623</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -2484,19 +2484,19 @@
         <v>8740</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3851</v>
+        <v>4166</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15170</v>
+        <v>15876</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1596505356405825</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07034159989344242</v>
+        <v>0.07610803064654506</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2771047370362253</v>
+        <v>0.290002241435527</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -2505,19 +2505,19 @@
         <v>27235</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>18128</v>
+        <v>18127</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37733</v>
+        <v>39037</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1987154130697351</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1322644103858915</v>
+        <v>0.1322553959037789</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2753112343364893</v>
+        <v>0.2848235619089221</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>10548</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5943</v>
+        <v>5552</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18295</v>
+        <v>18073</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1281381857896755</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07219632455528306</v>
+        <v>0.0674544633471499</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2222554737063737</v>
+        <v>0.2195655232191804</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2555,19 +2555,19 @@
         <v>6756</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2903</v>
+        <v>2870</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13663</v>
+        <v>12778</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1234068726358263</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0530267028984243</v>
+        <v>0.05241774277753132</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2495792398330474</v>
+        <v>0.2334200856958555</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -2576,19 +2576,19 @@
         <v>17303</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10340</v>
+        <v>10296</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26590</v>
+        <v>26431</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1262484104372114</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07543973371009777</v>
+        <v>0.07512238866107929</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1940096279252607</v>
+        <v>0.1928464570561478</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>44235</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>34673</v>
+        <v>34300</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>53211</v>
+        <v>53181</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5373895114603999</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4212277293809449</v>
+        <v>0.4167013737053644</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6464425388446142</v>
+        <v>0.6460720966937227</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>28</v>
@@ -2626,19 +2626,19 @@
         <v>28365</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>21451</v>
+        <v>20502</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>36271</v>
+        <v>35457</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5181567993942428</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3918438287351979</v>
+        <v>0.3745143570409934</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.662567268082292</v>
+        <v>0.6477047982537739</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>68</v>
@@ -2647,19 +2647,19 @@
         <v>72600</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>60901</v>
+        <v>60182</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>84636</v>
+        <v>83916</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5297076049702124</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4443485275630751</v>
+        <v>0.4391028112549357</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6175268786853481</v>
+        <v>0.6122716909225971</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>6177</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2143</v>
+        <v>2118</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12424</v>
+        <v>12127</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07503739114052629</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02603046445444735</v>
+        <v>0.0257254720613569</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.15093389857249</v>
+        <v>0.147326626108202</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2697,19 +2697,19 @@
         <v>8992</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4074</v>
+        <v>4204</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15572</v>
+        <v>16359</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1642541590049971</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07442226735952563</v>
+        <v>0.07679326211256771</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2844504727610914</v>
+        <v>0.2988241768731113</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -2718,19 +2718,19 @@
         <v>15168</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9266</v>
+        <v>8839</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24347</v>
+        <v>23790</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1106722441833075</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06760329298974291</v>
+        <v>0.06449032434794387</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1776427631371072</v>
+        <v>0.1735797658203633</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>2860</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8613</v>
+        <v>8378</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03473925556113824</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01094340769593733</v>
+        <v>0.01092495238909945</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1046351243486512</v>
+        <v>0.1017760372870422</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6107</v>
+        <v>5762</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03453163332435122</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1115527964876646</v>
+        <v>0.1052533014634732</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2789,19 +2789,19 @@
         <v>4750</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1832</v>
+        <v>1775</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10540</v>
+        <v>10460</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03465632733953355</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01336655325873157</v>
+        <v>0.01294821672188086</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07690198305159582</v>
+        <v>0.07632177803627979</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>22542</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14606</v>
+        <v>14265</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>31592</v>
+        <v>31696</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1920592201681901</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1244380222531308</v>
+        <v>0.1215403119942302</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2691614610167995</v>
+        <v>0.2700503671896074</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>12</v>
@@ -2914,19 +2914,19 @@
         <v>13091</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7065</v>
+        <v>7242</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20352</v>
+        <v>20649</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2367658005141734</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1277716768355213</v>
+        <v>0.1309784182742736</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3680779527935425</v>
+        <v>0.3734473944080938</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>34</v>
@@ -2935,19 +2935,19 @@
         <v>35634</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>26396</v>
+        <v>25147</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>48664</v>
+        <v>47047</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2063756089086387</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1528731787542232</v>
+        <v>0.1456432485369983</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.281843299091885</v>
+        <v>0.2724760189836105</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>29784</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>20608</v>
+        <v>20968</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>40079</v>
+        <v>41185</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2537551870104491</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1755826461633829</v>
+        <v>0.1786480712312232</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3414693718617957</v>
+        <v>0.3508927352673105</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -2985,19 +2985,19 @@
         <v>18619</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11653</v>
+        <v>11780</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>25997</v>
+        <v>25951</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3367409295452125</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2107615479808871</v>
+        <v>0.2130554136618698</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4701835421598898</v>
+        <v>0.4693423809898984</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>44</v>
@@ -3006,19 +3006,19 @@
         <v>48403</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>36037</v>
+        <v>36281</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>61912</v>
+        <v>60868</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2803297123006439</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2087090638312106</v>
+        <v>0.2101224250111756</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3585692998372889</v>
+        <v>0.3525217529837779</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>35026</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>25625</v>
+        <v>25032</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>47155</v>
+        <v>46278</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2984223437773399</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2183221560286745</v>
+        <v>0.2132735085216041</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4017568151566313</v>
+        <v>0.3942888438032703</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>13</v>
@@ -3056,19 +3056,19 @@
         <v>13911</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8229</v>
+        <v>8042</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>21098</v>
+        <v>21115</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2515933810327377</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1488331412839863</v>
+        <v>0.1454496652002117</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3815781536049024</v>
+        <v>0.3818906060818622</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>44</v>
@@ -3077,19 +3077,19 @@
         <v>48938</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>36816</v>
+        <v>37589</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>61360</v>
+        <v>63287</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2834263044968731</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2132231225034694</v>
+        <v>0.2177000464523339</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3553706984333423</v>
+        <v>0.3665330646495024</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>11827</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6539</v>
+        <v>6620</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18750</v>
+        <v>19299</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1007674160905739</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0557150445519662</v>
+        <v>0.05639844519384492</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1597514357256761</v>
+        <v>0.164428073703268</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -3127,19 +3127,19 @@
         <v>6679</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2849</v>
+        <v>2831</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12364</v>
+        <v>13159</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1207973672299703</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0515247234546465</v>
+        <v>0.05120140131913081</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2236136389479428</v>
+        <v>0.2379998140918749</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>19</v>
@@ -3148,19 +3148,19 @@
         <v>18506</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>11962</v>
+        <v>11807</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>28105</v>
+        <v>27710</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.107181607575241</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0692801827258854</v>
+        <v>0.06837967806919951</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.162770190487181</v>
+        <v>0.1604824158731638</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>18192</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>10966</v>
+        <v>11027</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>28740</v>
+        <v>28481</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.154995832953447</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09342724575061161</v>
+        <v>0.09394642003754843</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2448666394217444</v>
+        <v>0.2426538593810093</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3</v>
@@ -3198,19 +3198,19 @@
         <v>2991</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>8143</v>
+        <v>7858</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05410252167790603</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01713119949232104</v>
+        <v>0.01671974869815733</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1472759165821704</v>
+        <v>0.1421115390437195</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>19</v>
@@ -3219,19 +3219,19 @@
         <v>21184</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>12729</v>
+        <v>13909</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>31709</v>
+        <v>31367</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1226867667186034</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07372041934526299</v>
+        <v>0.08055419508957673</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1836442934949089</v>
+        <v>0.1816649906922758</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>63319</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>49898</v>
+        <v>47869</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>79552</v>
+        <v>79104</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2348440499039737</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1850674163298875</v>
+        <v>0.17754126095031</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2950536477451253</v>
+        <v>0.2933898129777922</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>57</v>
@@ -3344,19 +3344,19 @@
         <v>59779</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>47633</v>
+        <v>47462</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>72512</v>
+        <v>72464</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3299204730261868</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2628861414739759</v>
+        <v>0.2619428842051786</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4001910171121258</v>
+        <v>0.3999297253778967</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>113</v>
@@ -3365,19 +3365,19 @@
         <v>123098</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>102400</v>
+        <v>102409</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>143803</v>
+        <v>142948</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2730576771788055</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2271453850152834</v>
+        <v>0.2271651583532082</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3189856626163373</v>
+        <v>0.317089384414201</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>58678</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>45326</v>
+        <v>45455</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>73814</v>
+        <v>74383</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2176333704926418</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1681113256451019</v>
+        <v>0.1685891014465737</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2737692559724819</v>
+        <v>0.2758802730121801</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>38</v>
@@ -3415,19 +3415,19 @@
         <v>39613</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>29704</v>
+        <v>28310</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>52188</v>
+        <v>50726</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2186218019348073</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1639374690074628</v>
+        <v>0.1562419416109707</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2880261473014818</v>
+        <v>0.27995718228196</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>90</v>
@@ -3436,19 +3436,19 @@
         <v>98291</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>80785</v>
+        <v>81167</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>116744</v>
+        <v>117867</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2180306461733758</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1791979224501558</v>
+        <v>0.1800468165591339</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2589632526119792</v>
+        <v>0.2614538620476478</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>101910</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>85540</v>
+        <v>85969</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>118418</v>
+        <v>119487</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3779749733094785</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.317262328804432</v>
+        <v>0.3188540243400731</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4392033882918598</v>
+        <v>0.4431675477880702</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>43</v>
@@ -3486,19 +3486,19 @@
         <v>46825</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>35181</v>
+        <v>35576</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>60604</v>
+        <v>61220</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2584264432910187</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1941608750656277</v>
+        <v>0.1963441068796067</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3344729006303404</v>
+        <v>0.3378705203452781</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>142</v>
@@ -3507,19 +3507,19 @@
         <v>148735</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>127026</v>
+        <v>129021</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>170153</v>
+        <v>169365</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3299253852269823</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2817714500391109</v>
+        <v>0.286196531060167</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3774366748651923</v>
+        <v>0.3756885419141777</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>28022</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>19383</v>
+        <v>19010</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>39628</v>
+        <v>38780</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1039316530051123</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07189024733012486</v>
+        <v>0.07050567585973844</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1469775094529591</v>
+        <v>0.1438304398797912</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>20</v>
@@ -3557,19 +3557,19 @@
         <v>21206</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>13882</v>
+        <v>13602</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>31081</v>
+        <v>31808</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1170367858738499</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07661356719585066</v>
+        <v>0.07506761221721674</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1715368256841432</v>
+        <v>0.175545202148753</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>48</v>
@@ -3578,19 +3578,19 @@
         <v>49228</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>36426</v>
+        <v>37278</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>64247</v>
+        <v>65110</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.109198938483336</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.08079970655576446</v>
+        <v>0.08269149414684596</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1425132251498806</v>
+        <v>0.1444283911359691</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>17691</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10225</v>
+        <v>10312</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>27712</v>
+        <v>29583</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0656159532887937</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03792401891285827</v>
+        <v>0.03824560220853719</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1027831452692311</v>
+        <v>0.1097208247507193</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>12</v>
@@ -3628,19 +3628,19 @@
         <v>13770</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>7776</v>
+        <v>7140</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>23859</v>
+        <v>22936</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.07599449587413724</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.04291802998006003</v>
+        <v>0.03940312856170892</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1316767415803374</v>
+        <v>0.1265838949039871</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>28</v>
@@ -3649,19 +3649,19 @@
         <v>31461</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>21350</v>
+        <v>20969</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>44585</v>
+        <v>45812</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.06978735293750038</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04735946750526972</v>
+        <v>0.0465133362512321</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.09889843737407034</v>
+        <v>0.1016208001430684</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>32359</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>22210</v>
+        <v>22364</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>45606</v>
+        <v>44607</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08982743294320829</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06165591862090299</v>
+        <v>0.06208165469609137</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1266006519803383</v>
+        <v>0.123827530644082</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>27</v>
@@ -3774,19 +3774,19 @@
         <v>31647</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>21071</v>
+        <v>21830</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>44333</v>
+        <v>45510</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1223734456300204</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08147712711738091</v>
+        <v>0.08441435678216488</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1714312051125254</v>
+        <v>0.1759815846784995</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>56</v>
@@ -3795,19 +3795,19 @@
         <v>64006</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>48925</v>
+        <v>49431</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>82330</v>
+        <v>83522</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.10342813382147</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07905965510033239</v>
+        <v>0.07987601233935684</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1330385607417406</v>
+        <v>0.1349657070044107</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>42945</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>31185</v>
+        <v>32049</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>57772</v>
+        <v>58936</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1192136441467135</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08657015733695578</v>
+        <v>0.08896684102937152</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1603746286678414</v>
+        <v>0.1636068776132295</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>33</v>
@@ -3845,19 +3845,19 @@
         <v>35481</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>24803</v>
+        <v>25325</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>47556</v>
+        <v>48405</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.137200056406502</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.09590794678354542</v>
+        <v>0.09792915348290153</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1838906638136831</v>
+        <v>0.1871762670821436</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>71</v>
@@ -3866,19 +3866,19 @@
         <v>78426</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>61695</v>
+        <v>63631</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>97571</v>
+        <v>98018</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1267300122920994</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09969479727083316</v>
+        <v>0.1028231917852995</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1576672722708541</v>
+        <v>0.1583888282310567</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>102949</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>86583</v>
+        <v>85950</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>123576</v>
+        <v>120545</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2857863995813359</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2403533792869917</v>
+        <v>0.238594988475042</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3430464715104148</v>
+        <v>0.3346317375058285</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>57</v>
@@ -3916,19 +3916,19 @@
         <v>65274</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>51723</v>
+        <v>50090</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>81987</v>
+        <v>82348</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2524065078456821</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2000037404504552</v>
+        <v>0.1936905082695806</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3170326642166553</v>
+        <v>0.3184278568062746</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>154</v>
@@ -3937,19 +3937,19 @@
         <v>168224</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>145819</v>
+        <v>145872</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>191873</v>
+        <v>192668</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2718372277668314</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.235632140725148</v>
+        <v>0.2357176287861625</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3100515309557619</v>
+        <v>0.3113370178840635</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>115737</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>95980</v>
+        <v>97574</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>133138</v>
+        <v>132946</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3212845819955722</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2664381214081027</v>
+        <v>0.2708646268928565</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3695885772785779</v>
+        <v>0.3690577382110782</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>76</v>
@@ -3987,19 +3987,19 @@
         <v>81650</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>65487</v>
+        <v>67589</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>96643</v>
+        <v>97301</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3157288178317199</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2532304166093631</v>
+        <v>0.2613587376298754</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3737045407283494</v>
+        <v>0.3762479707764708</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>186</v>
@@ -4008,19 +4008,19 @@
         <v>197387</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>173942</v>
+        <v>173790</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>220372</v>
+        <v>218924</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3189628755773437</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2810769540236593</v>
+        <v>0.2808312570710716</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3561042166478616</v>
+        <v>0.3537652719550312</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>66242</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>52148</v>
+        <v>51288</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>82996</v>
+        <v>81616</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1838879413331701</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1447613480222119</v>
+        <v>0.14237506390725</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2303970487571138</v>
+        <v>0.2265642775238367</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>41</v>
@@ -4058,19 +4058,19 @@
         <v>44556</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>33560</v>
+        <v>34207</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>58399</v>
+        <v>58772</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1722911722860756</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1297714374719516</v>
+        <v>0.1322744986497113</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.225820729381626</v>
+        <v>0.2272613753676043</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>102</v>
@@ -4079,19 +4079,19 @@
         <v>110798</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>89791</v>
+        <v>92716</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>129793</v>
+        <v>134371</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1790417505422556</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1450960172613279</v>
+        <v>0.1498220889602769</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2097356943748108</v>
+        <v>0.2171331945296654</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>263343</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>235593</v>
+        <v>234496</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>298002</v>
+        <v>296358</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1864253242227741</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1667804303087455</v>
+        <v>0.1660044929964384</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2109615613822207</v>
+        <v>0.2097977227299648</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>203</v>
@@ -4204,19 +4204,19 @@
         <v>220885</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>196608</v>
+        <v>194579</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>249245</v>
+        <v>248777</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2350874220191967</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2092490845049665</v>
+        <v>0.2070896208535951</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2652710481449569</v>
+        <v>0.2647734975044537</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>444</v>
@@ -4225,19 +4225,19 @@
         <v>484228</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>445524</v>
+        <v>445672</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>526425</v>
+        <v>527071</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2058635809916918</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1894090491938789</v>
+        <v>0.1894721067770157</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.223803234996013</v>
+        <v>0.2240780362897513</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>258212</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>227986</v>
+        <v>225673</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>287639</v>
+        <v>286576</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.182792888714896</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.161395619925523</v>
+        <v>0.1597580667372284</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2036252186867452</v>
+        <v>0.202872785557905</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>150</v>
@@ -4275,19 +4275,19 @@
         <v>162057</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>139217</v>
+        <v>139469</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>185017</v>
+        <v>188293</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1724772125459423</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1481688221017496</v>
+        <v>0.1484371300508388</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1969131458012179</v>
+        <v>0.200399977470362</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>389</v>
@@ -4296,19 +4296,19 @@
         <v>420269</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>381597</v>
+        <v>382345</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>460831</v>
+        <v>459546</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1786722533293029</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1622315018847116</v>
+        <v>0.1625496066013592</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1959170083321961</v>
+        <v>0.1953706550227503</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>441591</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>407325</v>
+        <v>406600</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>477904</v>
+        <v>478238</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3126104178436344</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2883532155723879</v>
+        <v>0.2878395448966153</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3383176234970022</v>
+        <v>0.3385538504765535</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>252</v>
@@ -4346,19 +4346,19 @@
         <v>272063</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>245423</v>
+        <v>242425</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>300835</v>
+        <v>299832</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2895561723600197</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.261203732821882</v>
+        <v>0.2580128766556017</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3201778303172443</v>
+        <v>0.3191109129590534</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>675</v>
@@ -4367,19 +4367,19 @@
         <v>713654</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>665761</v>
+        <v>672703</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>763236</v>
+        <v>759845</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3034013133533403</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2830402046872776</v>
+        <v>0.2859915663071325</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3244806317906721</v>
+        <v>0.3230392115672717</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>226349</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>199527</v>
+        <v>198176</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>256090</v>
+        <v>256156</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1602366205084599</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1412490314893687</v>
+        <v>0.1402922870565594</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.181291171370091</v>
+        <v>0.1813376102047514</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>142</v>
@@ -4417,19 +4417,19 @@
         <v>151640</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>129493</v>
+        <v>130821</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>177162</v>
+        <v>175776</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1613904522311733</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1378195533404894</v>
+        <v>0.1392327475702059</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1885534882180653</v>
+        <v>0.1870781619546229</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>358</v>
@@ -4438,19 +4438,19 @@
         <v>377989</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>340623</v>
+        <v>343585</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>412833</v>
+        <v>416281</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1606975229008733</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1448117455019129</v>
+        <v>0.1460709713016198</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1755110044761131</v>
+        <v>0.176977090344929</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>223097</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>196961</v>
+        <v>196919</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>254746</v>
+        <v>252502</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1579347487102357</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1394324298837562</v>
+        <v>0.1394026936249459</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1803395717448459</v>
+        <v>0.1787509942399701</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>120</v>
@@ -4488,19 +4488,19 @@
         <v>132941</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>113687</v>
+        <v>109575</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>158622</v>
+        <v>154721</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.141488740843668</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1209969144315044</v>
+        <v>0.1166206840029227</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1688209119322432</v>
+        <v>0.164669683229772</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>327</v>
@@ -4509,19 +4509,19 @@
         <v>356038</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>320710</v>
+        <v>320924</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>392461</v>
+        <v>395085</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1513653294247917</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1363460023361868</v>
+        <v>0.1364371732283828</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1668500243995555</v>
+        <v>0.1679656166321339</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>43192</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33231</v>
+        <v>32179</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55700</v>
+        <v>54949</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3246263685302558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2497641988908058</v>
+        <v>0.2418577946663257</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.418637965653716</v>
+        <v>0.4129910900547273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -4878,19 +4878,19 @@
         <v>38726</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29065</v>
+        <v>29100</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49601</v>
+        <v>48406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3869910110209607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2904512147598365</v>
+        <v>0.2907945110111067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4956626562234861</v>
+        <v>0.4837203537856162</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -4899,19 +4899,19 @@
         <v>81918</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66878</v>
+        <v>66140</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97490</v>
+        <v>96541</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.351397121900762</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2868813977848378</v>
+        <v>0.2837146407568752</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4181963143876479</v>
+        <v>0.4141259274008742</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>14061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7933</v>
+        <v>7328</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23447</v>
+        <v>21786</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1056796283958839</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05962116436873033</v>
+        <v>0.05507484235834761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.176228020820481</v>
+        <v>0.1637394417176452</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -4949,19 +4949,19 @@
         <v>5898</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2018</v>
+        <v>2058</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12891</v>
+        <v>12822</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05893678977977652</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02016965761764815</v>
+        <v>0.02056121584026179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1288235304600558</v>
+        <v>0.1281344586893953</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -4970,19 +4970,19 @@
         <v>19959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12531</v>
+        <v>12543</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29459</v>
+        <v>30133</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08561471734286717</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05375349880144886</v>
+        <v>0.05380356267795214</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1263668425131606</v>
+        <v>0.129261398914343</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>41819</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31017</v>
+        <v>31506</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54515</v>
+        <v>53502</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3143068259298839</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2331223346232096</v>
+        <v>0.236794930824539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4097293574621159</v>
+        <v>0.4021136220475572</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -5020,19 +5020,19 @@
         <v>39953</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30389</v>
+        <v>30579</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50249</v>
+        <v>50375</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3992508999021177</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3036808082490298</v>
+        <v>0.3055781135504121</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5021366533624728</v>
+        <v>0.5033963878462133</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -5041,19 +5041,19 @@
         <v>81772</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>66697</v>
+        <v>66873</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>97339</v>
+        <v>97218</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3507700647744846</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.286104558684687</v>
+        <v>0.2868608148945312</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4175491679293686</v>
+        <v>0.4170296955771209</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>21933</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13928</v>
+        <v>14311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32738</v>
+        <v>31624</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1648452802954444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1046834453177685</v>
+        <v>0.1075571310595868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2460566431185697</v>
+        <v>0.2376807033701392</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5091,19 +5091,19 @@
         <v>8971</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3852</v>
+        <v>4190</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16739</v>
+        <v>17440</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08965064302686711</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03849040502222212</v>
+        <v>0.04187254594156465</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.167269316270773</v>
+        <v>0.1742784336491274</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -5112,19 +5112,19 @@
         <v>30904</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20767</v>
+        <v>20985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42316</v>
+        <v>42990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1325671013673477</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08908089499898478</v>
+        <v>0.09001599933769218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1815218683611935</v>
+        <v>0.1844105283030656</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>12047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6189</v>
+        <v>6482</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21960</v>
+        <v>22464</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09054189684853191</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0465131783601798</v>
+        <v>0.04871744953712541</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1650464582725463</v>
+        <v>0.1688376404360276</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -5162,19 +5162,19 @@
         <v>6522</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2702</v>
+        <v>2696</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12316</v>
+        <v>12660</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06517065627027799</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02700567591719115</v>
+        <v>0.0269426067723094</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1230699159435285</v>
+        <v>0.1265152687367561</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -5183,19 +5183,19 @@
         <v>18568</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10661</v>
+        <v>11169</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28576</v>
+        <v>29540</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07965099461453856</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04573126364195913</v>
+        <v>0.04791129576414038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1225824715263353</v>
+        <v>0.1267179688649507</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>61297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50157</v>
+        <v>48556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74868</v>
+        <v>74624</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3599435657981433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.294525702733496</v>
+        <v>0.2851246081936195</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4396312236231469</v>
+        <v>0.4381994458906693</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -5308,19 +5308,19 @@
         <v>36900</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28168</v>
+        <v>26962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47547</v>
+        <v>47107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3245951083684963</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2477839707720474</v>
+        <v>0.2371757028113069</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4182511581818728</v>
+        <v>0.4143793440782195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -5329,19 +5329,19 @@
         <v>98197</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83671</v>
+        <v>80935</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116043</v>
+        <v>115100</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3457930544506218</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2946407340179591</v>
+        <v>0.2850058674923696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4086368873625522</v>
+        <v>0.4053156729581302</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>19066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11525</v>
+        <v>11476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28696</v>
+        <v>28802</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1119546197493636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06767720118953258</v>
+        <v>0.06738803362499671</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1685078247942622</v>
+        <v>0.1691266949354566</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -5379,19 +5379,19 @@
         <v>21923</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14097</v>
+        <v>14094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31073</v>
+        <v>31365</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1928469963653381</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1240095826310401</v>
+        <v>0.1239819760160163</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2733410578906865</v>
+        <v>0.2759088984193675</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -5400,19 +5400,19 @@
         <v>40988</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29510</v>
+        <v>29694</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54106</v>
+        <v>52590</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1443370368749349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1039169797555659</v>
+        <v>0.1045643162310037</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1905284353790838</v>
+        <v>0.1851923258574515</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>40801</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29975</v>
+        <v>30206</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52619</v>
+        <v>53284</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.239588428283707</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1760187710084537</v>
+        <v>0.1773705887195245</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3089864489713384</v>
+        <v>0.3128868555045767</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -5450,19 +5450,19 @@
         <v>19856</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12839</v>
+        <v>12621</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29372</v>
+        <v>29548</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1746650780463509</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.112941660647247</v>
+        <v>0.1110211851969712</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2583717770976236</v>
+        <v>0.2599269205293568</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>56</v>
@@ -5471,19 +5471,19 @@
         <v>60657</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47123</v>
+        <v>47422</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75692</v>
+        <v>75535</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.213598649066855</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1659401031559785</v>
+        <v>0.1669912843307856</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2665421980232732</v>
+        <v>0.2659915678208313</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>25130</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16904</v>
+        <v>17124</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36256</v>
+        <v>35877</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1475652828184996</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09926061906442372</v>
+        <v>0.1005544239857479</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2128983279827455</v>
+        <v>0.2106718064348878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -5521,19 +5521,19 @@
         <v>12619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6752</v>
+        <v>7053</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20841</v>
+        <v>19637</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1110045171436187</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05939534712411212</v>
+        <v>0.06204595861652458</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1833342861540745</v>
+        <v>0.1727385284121223</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -5542,19 +5542,19 @@
         <v>37749</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27041</v>
+        <v>27621</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50768</v>
+        <v>51393</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1329294665148844</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09522197315737113</v>
+        <v>0.09726452099791599</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1787761536582507</v>
+        <v>0.1809766968930644</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>24003</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15625</v>
+        <v>16675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34909</v>
+        <v>35263</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1409481033502865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09175439960507967</v>
+        <v>0.09791832833357657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2049861885310814</v>
+        <v>0.2070662748733954</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -5592,19 +5592,19 @@
         <v>22382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14353</v>
+        <v>14258</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32505</v>
+        <v>33237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1968883000761961</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1262616498565194</v>
+        <v>0.1254203009509161</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2859382711541474</v>
+        <v>0.2923706450620378</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -5613,19 +5613,19 @@
         <v>46385</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35028</v>
+        <v>34497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61077</v>
+        <v>59246</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.163341793092704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1233468975963251</v>
+        <v>0.1214793100685001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.215076280796643</v>
+        <v>0.2086304803033751</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>37705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28705</v>
+        <v>29111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47949</v>
+        <v>49827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3002259283193575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2285649649414601</v>
+        <v>0.231798112438189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3817924676874925</v>
+        <v>0.3967444604987253</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -5738,19 +5738,19 @@
         <v>25118</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18277</v>
+        <v>17089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34598</v>
+        <v>33273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2978489721103116</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2167233272585448</v>
+        <v>0.2026313247520181</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4102578678219405</v>
+        <v>0.3945422677882672</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -5759,19 +5759,19 @@
         <v>62824</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51084</v>
+        <v>50546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77475</v>
+        <v>77540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.299271019325921</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2433468196584212</v>
+        <v>0.2407863307691777</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3690667982113761</v>
+        <v>0.3693750662256917</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>29660</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20441</v>
+        <v>20750</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40155</v>
+        <v>39313</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2361668547190591</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1627597389166353</v>
+        <v>0.1652207288629952</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3197371223277336</v>
+        <v>0.3130289926494901</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -5809,19 +5809,19 @@
         <v>18392</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11741</v>
+        <v>11839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26477</v>
+        <v>25906</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2180831999645404</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1392185539013919</v>
+        <v>0.1403830451225823</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3139633410712857</v>
+        <v>0.307182140634408</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -5830,19 +5830,19 @@
         <v>48052</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37386</v>
+        <v>36287</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61121</v>
+        <v>59943</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2289019987265201</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1780924855584855</v>
+        <v>0.1728579818214024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2911609743800411</v>
+        <v>0.2855472483104556</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>37622</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28343</v>
+        <v>28349</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48538</v>
+        <v>48186</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2995681366548771</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2256820560636836</v>
+        <v>0.2257287986155723</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3864795885324329</v>
+        <v>0.3836834718418032</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -5880,19 +5880,19 @@
         <v>28095</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19621</v>
+        <v>20711</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37163</v>
+        <v>37406</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3331442880267679</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2326643406987858</v>
+        <v>0.2455809622904553</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4406686642817185</v>
+        <v>0.4435461923639707</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>68</v>
@@ -5901,19 +5901,19 @@
         <v>65718</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53590</v>
+        <v>54127</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79681</v>
+        <v>79871</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3130568870104723</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2552855846864953</v>
+        <v>0.2578418188902357</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3795731411061388</v>
+        <v>0.3804775807169365</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>20602</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13708</v>
+        <v>13293</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29237</v>
+        <v>30671</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1640390803067063</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1091513730375034</v>
+        <v>0.1058462541895396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2327986612175592</v>
+        <v>0.2442181064828005</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -5951,19 +5951,19 @@
         <v>10738</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5506</v>
+        <v>5512</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17427</v>
+        <v>18007</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1273320782529687</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06528605013649269</v>
+        <v>0.06536075131299277</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2066413558489085</v>
+        <v>0.2135196832679164</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -5972,19 +5972,19 @@
         <v>31340</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22983</v>
+        <v>22337</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43562</v>
+        <v>42306</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1492925543716433</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1094856054488862</v>
+        <v>0.1064048400970074</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.207517339620102</v>
+        <v>0.2015340215528715</v>
       </c>
     </row>
     <row r="20">
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6906</v>
+        <v>6274</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02359146164541149</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08189242734040503</v>
+        <v>0.07439963707320857</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7842</v>
+        <v>6928</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009477540565443159</v>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0373554455173271</v>
+        <v>0.03300387712375446</v>
       </c>
     </row>
     <row r="21">
@@ -6139,19 +6139,19 @@
         <v>57271</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46601</v>
+        <v>47095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68345</v>
+        <v>68858</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.510530928813883</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4154086190730128</v>
+        <v>0.4198159729031212</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6092464724272899</v>
+        <v>0.6138186230591672</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -6160,19 +6160,19 @@
         <v>45130</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36052</v>
+        <v>35574</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53526</v>
+        <v>54451</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5513194108459725</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4404174222449874</v>
+        <v>0.4345822178459745</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6538848332992265</v>
+        <v>0.6651771779660224</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>97</v>
@@ -6181,19 +6181,19 @@
         <v>102402</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88284</v>
+        <v>87435</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>116597</v>
+        <v>117189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5277382789490528</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4549803398911675</v>
+        <v>0.4506027477541544</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6008932043873025</v>
+        <v>0.6039433899624256</v>
       </c>
     </row>
     <row r="23">
@@ -6210,19 +6210,19 @@
         <v>11462</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5923</v>
+        <v>6058</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18955</v>
+        <v>19289</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1021743957908151</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05279536674379287</v>
+        <v>0.05400382147288656</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1689728350281925</v>
+        <v>0.1719489109589324</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -6231,19 +6231,19 @@
         <v>9093</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4577</v>
+        <v>4487</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16315</v>
+        <v>16034</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.111080448997393</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05591498443628987</v>
+        <v>0.05481486623113555</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1993090649164681</v>
+        <v>0.195872058484922</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -6252,19 +6252,19 @@
         <v>20555</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>13412</v>
+        <v>13406</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>30373</v>
+        <v>31192</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1059315735089628</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06911789054560595</v>
+        <v>0.06909037864044046</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1565281561568463</v>
+        <v>0.1607508646531146</v>
       </c>
     </row>
     <row r="24">
@@ -6281,19 +6281,19 @@
         <v>23270</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15366</v>
+        <v>15249</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32757</v>
+        <v>32464</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2074351262497067</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1369772656774442</v>
+        <v>0.1359306033839386</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2920058062002669</v>
+        <v>0.2893892142086164</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -6302,19 +6302,19 @@
         <v>16750</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10006</v>
+        <v>10032</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25102</v>
+        <v>25459</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2046206628874715</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1222314486601488</v>
+        <v>0.1225466019983919</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.306644901834962</v>
+        <v>0.3110049723024434</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>38</v>
@@ -6323,19 +6323,19 @@
         <v>40020</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>29371</v>
+        <v>29186</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>52970</v>
+        <v>53720</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.206247794579004</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1513652970066965</v>
+        <v>0.1504154669799589</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.272985819267819</v>
+        <v>0.2768538818694145</v>
       </c>
     </row>
     <row r="25">
@@ -6352,19 +6352,19 @@
         <v>8779</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4093</v>
+        <v>4174</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16684</v>
+        <v>16674</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07826212340438889</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0364816551932789</v>
+        <v>0.03721218318410991</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1487216226918643</v>
+        <v>0.1486338588159173</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -6373,19 +6373,19 @@
         <v>5170</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1551</v>
+        <v>1118</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12350</v>
+        <v>12175</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06316073336585629</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01895222565447499</v>
+        <v>0.01365702334738183</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1508751170888731</v>
+        <v>0.1487321346164205</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -6394,19 +6394,19 @@
         <v>13950</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7686</v>
+        <v>7220</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24186</v>
+        <v>22082</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07189133211785952</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03960976375745495</v>
+        <v>0.03720818552280459</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1246472935781432</v>
+        <v>0.1138031422601216</v>
       </c>
     </row>
     <row r="26">
@@ -6423,19 +6423,19 @@
         <v>11397</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5785</v>
+        <v>5539</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19856</v>
+        <v>19091</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1015974257412064</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05156626093560531</v>
+        <v>0.04937330167256099</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1769983834868025</v>
+        <v>0.1701790096290542</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -6444,19 +6444,19 @@
         <v>5715</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2169</v>
+        <v>1980</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11594</v>
+        <v>11454</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06981874390330674</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02649959940151797</v>
+        <v>0.02418445112973483</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1416287628878902</v>
+        <v>0.1399257263131791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -6465,19 +6465,19 @@
         <v>17112</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10353</v>
+        <v>9460</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26844</v>
+        <v>26827</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0881910208451209</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0533535235072936</v>
+        <v>0.04875176218903065</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1383437189889428</v>
+        <v>0.1382553326499457</v>
       </c>
     </row>
     <row r="27">
@@ -6569,19 +6569,19 @@
         <v>14507</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8546</v>
+        <v>8805</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>22946</v>
+        <v>22284</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1792541295723061</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1056028605335245</v>
+        <v>0.108801570248225</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2835252632442117</v>
+        <v>0.2753439852074877</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -6590,19 +6590,19 @@
         <v>10380</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5105</v>
+        <v>5767</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17478</v>
+        <v>18106</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1872968825869979</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09212177812855306</v>
+        <v>0.1040547729132767</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3153788553436934</v>
+        <v>0.3267123385653287</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -6611,19 +6611,19 @@
         <v>24887</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16181</v>
+        <v>17191</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34757</v>
+        <v>34235</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1825230845887285</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1186745612089359</v>
+        <v>0.1260794313429241</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2549123265130055</v>
+        <v>0.2510883910540618</v>
       </c>
     </row>
     <row r="29">
@@ -6640,19 +6640,19 @@
         <v>19799</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12902</v>
+        <v>13495</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28568</v>
+        <v>28917</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.24463994677089</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1594242183583125</v>
+        <v>0.1667521561305291</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3529951842584042</v>
+        <v>0.3573134539253333</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -6661,19 +6661,19 @@
         <v>12761</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7951</v>
+        <v>7913</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19293</v>
+        <v>19340</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2302765671572745</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1434657974165278</v>
+        <v>0.142795320430511</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.348142787284544</v>
+        <v>0.348990953754674</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>34</v>
@@ -6682,19 +6682,19 @@
         <v>32560</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>23596</v>
+        <v>24170</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>43046</v>
+        <v>43037</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2388019903205379</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1730565683829017</v>
+        <v>0.1772700624746146</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3157057614237864</v>
+        <v>0.315644354849204</v>
       </c>
     </row>
     <row r="30">
@@ -6711,19 +6711,19 @@
         <v>19468</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12567</v>
+        <v>12584</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27454</v>
+        <v>28373</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2405526382734559</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1552794287950161</v>
+        <v>0.1554912972210918</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.339230373701932</v>
+        <v>0.3505913856942423</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -6732,19 +6732,19 @@
         <v>15901</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10151</v>
+        <v>9624</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22988</v>
+        <v>22587</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2869342399892417</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1831683374635786</v>
+        <v>0.1736605993690948</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4148076887239127</v>
+        <v>0.4075822903311307</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>35</v>
@@ -6753,19 +6753,19 @@
         <v>35369</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>26584</v>
+        <v>25969</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>46267</v>
+        <v>47224</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2594043137285594</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1949746550269911</v>
+        <v>0.190460946831975</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3393335539945251</v>
+        <v>0.3463462322099147</v>
       </c>
     </row>
     <row r="31">
@@ -6782,19 +6782,19 @@
         <v>23811</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15224</v>
+        <v>16036</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33236</v>
+        <v>32726</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2942195829661973</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1881133479289467</v>
+        <v>0.198146044689995</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4106805897455187</v>
+        <v>0.4043750424866389</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -6803,19 +6803,19 @@
         <v>13609</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8403</v>
+        <v>8090</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>20970</v>
+        <v>20426</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2455619171671824</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1516298427941305</v>
+        <v>0.1459899719462646</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3783937492522692</v>
+        <v>0.3685883205750941</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>38</v>
@@ -6824,19 +6824,19 @@
         <v>37420</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>28499</v>
+        <v>27792</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48831</v>
+        <v>48540</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2744428074752007</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2090157616669877</v>
+        <v>0.2038290144217984</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3581330661085225</v>
+        <v>0.3560034627927984</v>
       </c>
     </row>
     <row r="32">
@@ -6853,19 +6853,19 @@
         <v>3345</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8496</v>
+        <v>8636</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04133370241715078</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0110141412837043</v>
+        <v>0.01092850918418901</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1049833997078697</v>
+        <v>0.1067052632133317</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -6874,19 +6874,19 @@
         <v>2767</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7395</v>
+        <v>7570</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04993039309930358</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01490580781192041</v>
+        <v>0.01454524513809316</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1334442849460266</v>
+        <v>0.1366062076356312</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -6895,19 +6895,19 @@
         <v>6112</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2503</v>
+        <v>1952</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12993</v>
+        <v>13095</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04482780388697346</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01835949054031564</v>
+        <v>0.01431473693150752</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09529604558591549</v>
+        <v>0.09604467929224596</v>
       </c>
     </row>
     <row r="33">
@@ -6999,19 +6999,19 @@
         <v>13614</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7800</v>
+        <v>7354</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21908</v>
+        <v>22011</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1266373648950363</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07255918911091876</v>
+        <v>0.06841131196481508</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2037878439356311</v>
+        <v>0.2047481062372998</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -7020,19 +7020,19 @@
         <v>8534</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4462</v>
+        <v>3883</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15222</v>
+        <v>14229</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1129327106567983</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05905260504244028</v>
+        <v>0.05138747549685108</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2014362719121162</v>
+        <v>0.1882978690153357</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>22</v>
@@ -7041,19 +7041,19 @@
         <v>22148</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14589</v>
+        <v>14716</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>31310</v>
+        <v>32980</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1209803232336854</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0796899797435462</v>
+        <v>0.08038268388876027</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1710272250064879</v>
+        <v>0.1801508672019945</v>
       </c>
     </row>
     <row r="35">
@@ -7070,19 +7070,19 @@
         <v>26400</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17154</v>
+        <v>17963</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>36557</v>
+        <v>35816</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2455810586746159</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.159571059304751</v>
+        <v>0.1670923705757032</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3400622006754627</v>
+        <v>0.3331628711298109</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -7091,19 +7091,19 @@
         <v>18999</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12889</v>
+        <v>11892</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27633</v>
+        <v>27384</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2514116254351359</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1705669070367932</v>
+        <v>0.1573715956687474</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3656725301253294</v>
+        <v>0.3623692205201504</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>44</v>
@@ -7112,19 +7112,19 @@
         <v>45399</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>34551</v>
+        <v>34392</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>59521</v>
+        <v>58187</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.247987814693423</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1887315650760342</v>
+        <v>0.1878589843719731</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3251257966235479</v>
+        <v>0.3178406913280879</v>
       </c>
     </row>
     <row r="36">
@@ -7141,19 +7141,19 @@
         <v>36116</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>26884</v>
+        <v>27091</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>47409</v>
+        <v>46475</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3359521875590298</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2500793065819958</v>
+        <v>0.2520081256289543</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4410091245269923</v>
+        <v>0.4323131985400296</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>26</v>
@@ -7162,19 +7162,19 @@
         <v>25225</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18286</v>
+        <v>17796</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>33865</v>
+        <v>33972</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.333804988936633</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2419788914005775</v>
+        <v>0.235494211226279</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4481345345897426</v>
+        <v>0.449552261820676</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>61</v>
@@ -7183,19 +7183,19 @@
         <v>61341</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>48955</v>
+        <v>48786</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>73795</v>
+        <v>74128</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3350658615087014</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.267410612018897</v>
+        <v>0.2664868005181258</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4030949017747792</v>
+        <v>0.4049135470506116</v>
       </c>
     </row>
     <row r="37">
@@ -7212,19 +7212,19 @@
         <v>18965</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11637</v>
+        <v>11669</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28150</v>
+        <v>28770</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1764107453823874</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.108248422828755</v>
+        <v>0.1085456254160068</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2618518831514225</v>
+        <v>0.2676256862222413</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>16</v>
@@ -7233,19 +7233,19 @@
         <v>16102</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>9452</v>
+        <v>9831</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23812</v>
+        <v>24003</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2130847500738099</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.125077399011271</v>
+        <v>0.1300938085237054</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3151065367317412</v>
+        <v>0.3176338354165412</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -7254,19 +7254,19 @@
         <v>35067</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25140</v>
+        <v>25809</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>46613</v>
+        <v>46531</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1915491333213616</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.137324225869649</v>
+        <v>0.1409793874747496</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2546188782310791</v>
+        <v>0.2541696511679188</v>
       </c>
     </row>
     <row r="38">
@@ -7283,19 +7283,19 @@
         <v>12408</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>6593</v>
+        <v>6564</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>20695</v>
+        <v>20286</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1154186434889305</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06133094464578019</v>
+        <v>0.06106012927525858</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.192505191502155</v>
+        <v>0.1887027762883122</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -7304,19 +7304,19 @@
         <v>6708</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2908</v>
+        <v>2792</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12613</v>
+        <v>12349</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08876592489762285</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03848518229057216</v>
+        <v>0.03694237248465592</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1669158587046081</v>
+        <v>0.1634216006229469</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>19</v>
@@ -7325,19 +7325,19 @@
         <v>19116</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>12515</v>
+        <v>12110</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>29163</v>
+        <v>28597</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1044168672428285</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0683638166926669</v>
+        <v>0.06614797664626339</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1593014042903044</v>
+        <v>0.1562049473749604</v>
       </c>
     </row>
     <row r="39">
@@ -7429,19 +7429,19 @@
         <v>72743</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>57892</v>
+        <v>57505</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>88431</v>
+        <v>88758</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2026986328080249</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1613160574265808</v>
+        <v>0.1602371295447682</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2464114161705878</v>
+        <v>0.2473219985301136</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>64</v>
@@ -7450,19 +7450,19 @@
         <v>66769</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>53130</v>
+        <v>53577</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>82498</v>
+        <v>84636</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2352287483668353</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1871806423757817</v>
+        <v>0.1887551434110403</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2906424837620804</v>
+        <v>0.2981766752710692</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>130</v>
@@ -7471,19 +7471,19 @@
         <v>139512</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>119165</v>
+        <v>119400</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>162104</v>
+        <v>164769</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2170649655737454</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1854072200689657</v>
+        <v>0.1857725933607815</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2522150324511374</v>
+        <v>0.2563613617857069</v>
       </c>
     </row>
     <row r="41">
@@ -7500,19 +7500,19 @@
         <v>85608</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>69425</v>
+        <v>69395</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>102670</v>
+        <v>106231</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2385454504043204</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1934529218134002</v>
+        <v>0.1933670397026712</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2860873257341143</v>
+        <v>0.2960117351913227</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>63</v>
@@ -7521,19 +7521,19 @@
         <v>64947</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>51211</v>
+        <v>52371</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>78546</v>
+        <v>80355</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2288117848922382</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1804172026080754</v>
+        <v>0.1845050378275099</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2767199509400657</v>
+        <v>0.2830925846160615</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>136</v>
@@ -7542,19 +7542,19 @@
         <v>150555</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>128745</v>
+        <v>128801</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>172872</v>
+        <v>173724</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2342467543998755</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2003130350805452</v>
+        <v>0.2003992712772038</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2689682137292131</v>
+        <v>0.270293978656481</v>
       </c>
     </row>
     <row r="42">
@@ -7571,19 +7571,19 @@
         <v>126368</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>106573</v>
+        <v>107459</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>145426</v>
+        <v>146635</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3521227154304195</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2969642082279789</v>
+        <v>0.29943208693669</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4052278573081542</v>
+        <v>0.4085976464930876</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>90</v>
@@ -7592,19 +7592,19 @@
         <v>92923</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>77108</v>
+        <v>78120</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>108401</v>
+        <v>108982</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3273703682850515</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2716529380687296</v>
+        <v>0.2752186608234704</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3819007372727793</v>
+        <v>0.3839493078932804</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>198</v>
@@ -7613,19 +7613,19 @@
         <v>219291</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>194518</v>
+        <v>195929</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>246393</v>
+        <v>243779</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3411912923563112</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3026471012946613</v>
+        <v>0.3048435105922638</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3833587605406771</v>
+        <v>0.3792920837558269</v>
       </c>
     </row>
     <row r="43">
@@ -7642,19 +7642,19 @@
         <v>46554</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>34315</v>
+        <v>34198</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>60635</v>
+        <v>62370</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1297207565896119</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.09561801693564265</v>
+        <v>0.09529349811374298</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1689595891524635</v>
+        <v>0.1737921278196003</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>39</v>
@@ -7663,19 +7663,19 @@
         <v>42229</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>31256</v>
+        <v>31480</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>56467</v>
+        <v>56258</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1487756418034641</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1101152112423212</v>
+        <v>0.1109065019329959</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1989345682409847</v>
+        <v>0.1981978064865096</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>80</v>
@@ -7684,19 +7684,19 @@
         <v>88783</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>71280</v>
+        <v>71501</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>107838</v>
+        <v>106029</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1381359994220545</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1109033441969727</v>
+        <v>0.1112465726450174</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1677832131808555</v>
+        <v>0.1649683074306062</v>
       </c>
     </row>
     <row r="44">
@@ -7713,19 +7713,19 @@
         <v>27602</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>18239</v>
+        <v>18494</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>39015</v>
+        <v>40188</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.07691244476762332</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05082355184370711</v>
+        <v>0.05153435236808072</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1087152519690506</v>
+        <v>0.1119834658873099</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>17</v>
@@ -7734,19 +7734,19 @@
         <v>16978</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>10499</v>
+        <v>9940</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>27224</v>
+        <v>26422</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0598134566524109</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03698915978825384</v>
+        <v>0.03502057875889908</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09591087409516484</v>
+        <v>0.09308685896700065</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>41</v>
@@ -7755,19 +7755,19 @@
         <v>44580</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>32340</v>
+        <v>32197</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>58828</v>
+        <v>59100</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.06936098824801344</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05031727873225022</v>
+        <v>0.05009521711258298</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.09152974810544144</v>
+        <v>0.09195258602777069</v>
       </c>
     </row>
     <row r="45">
@@ -7859,19 +7859,19 @@
         <v>27476</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>19081</v>
+        <v>18068</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>39145</v>
+        <v>40039</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08379066582651745</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05818971008798324</v>
+        <v>0.05509887175272955</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1193760825784743</v>
+        <v>0.1221016149285878</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>28</v>
@@ -7880,19 +7880,19 @@
         <v>28896</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>19956</v>
+        <v>20213</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>39430</v>
+        <v>40783</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1218187906395549</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08412805314001467</v>
+        <v>0.08521273717141188</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1662263523847585</v>
+        <v>0.171931498860432</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>53</v>
@@ -7901,19 +7901,19 @@
         <v>56372</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>43031</v>
+        <v>43112</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>72135</v>
+        <v>71852</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.09975282316358508</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07614569443266231</v>
+        <v>0.07628772104731595</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1276453137401538</v>
+        <v>0.1271444127030186</v>
       </c>
     </row>
     <row r="47">
@@ -7930,19 +7930,19 @@
         <v>38483</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>28577</v>
+        <v>27308</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>51445</v>
+        <v>50844</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1173584181025014</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08714961256330206</v>
+        <v>0.08327827249802269</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1568857858899717</v>
+        <v>0.1550542185362435</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>40</v>
@@ -7951,19 +7951,19 @@
         <v>42017</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>30295</v>
+        <v>30378</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>54512</v>
+        <v>54414</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.177133265130648</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1277163573772803</v>
+        <v>0.1280655269175812</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2298076115520253</v>
+        <v>0.2293960281558682</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>77</v>
@@ -7972,19 +7972,19 @@
         <v>80500</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>65459</v>
+        <v>63344</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>100091</v>
+        <v>98736</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.142448677423816</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1158329481600689</v>
+        <v>0.1120888505253258</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1771147091317491</v>
+        <v>0.174717638062823</v>
       </c>
     </row>
     <row r="48">
@@ -8001,19 +8001,19 @@
         <v>101423</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>84872</v>
+        <v>84871</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>117936</v>
+        <v>118800</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3092994358458264</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2588238200100476</v>
+        <v>0.2588230981114024</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3596569262551143</v>
+        <v>0.3622909205529093</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>60</v>
@@ -8022,19 +8022,19 @@
         <v>62279</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>50190</v>
+        <v>48483</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>76427</v>
+        <v>77145</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2625528148193193</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2115867169170078</v>
+        <v>0.2043918147448029</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.322194282967591</v>
+        <v>0.3252223129912042</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>159</v>
@@ -8043,19 +8043,19 @@
         <v>163702</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>143001</v>
+        <v>143045</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>186840</v>
+        <v>184678</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2896777236664879</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2530464340681011</v>
+        <v>0.2531243084604717</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.330620725111491</v>
+        <v>0.3267949297597676</v>
       </c>
     </row>
     <row r="49">
@@ -8072,19 +8072,19 @@
         <v>91336</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>76815</v>
+        <v>75245</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>108481</v>
+        <v>106587</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2785386990644166</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2342553375408797</v>
+        <v>0.229467509479028</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3308215659892421</v>
+        <v>0.3250461067174122</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>68</v>
@@ -8093,19 +8093,19 @@
         <v>69731</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>55483</v>
+        <v>56858</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>84904</v>
+        <v>84709</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2939672256972889</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.233900560544254</v>
+        <v>0.2396979311162595</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3579304334842592</v>
+        <v>0.357109244465336</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>155</v>
@@ -8114,19 +8114,19 @@
         <v>161067</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>139642</v>
+        <v>139593</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>182440</v>
+        <v>180632</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2850147630513691</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2471011405184156</v>
+        <v>0.2470158219494462</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3228345508691518</v>
+        <v>0.3196359402097184</v>
       </c>
     </row>
     <row r="50">
@@ -8143,19 +8143,19 @@
         <v>69194</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>55358</v>
+        <v>54709</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>84438</v>
+        <v>85886</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2110127811607382</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1688201674643234</v>
+        <v>0.166839806387377</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2575016589210624</v>
+        <v>0.2619169568137509</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>32</v>
@@ -8164,19 +8164,19 @@
         <v>34283</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>24576</v>
+        <v>23663</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>46566</v>
+        <v>45986</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1445279037131889</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1036073183408968</v>
+        <v>0.09975589973354014</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1963109345164887</v>
+        <v>0.1938664852341469</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>98</v>
@@ -8185,19 +8185,19 @@
         <v>103477</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>85375</v>
+        <v>87647</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>122734</v>
+        <v>124981</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1831060126947419</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1510741065278836</v>
+        <v>0.1550939726848739</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2171829623027524</v>
+        <v>0.2211593728921406</v>
       </c>
     </row>
     <row r="51">
@@ -8289,19 +8289,19 @@
         <v>327806</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>295739</v>
+        <v>298787</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>359498</v>
+        <v>366090</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2314462774099774</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2088058117873096</v>
+        <v>0.2109573479358015</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2538223645943802</v>
+        <v>0.2584769372453822</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>253</v>
@@ -8310,19 +8310,19 @@
         <v>260454</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>233368</v>
+        <v>233202</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>288551</v>
+        <v>290425</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2523822850810882</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2261355640483041</v>
+        <v>0.2259746254508813</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2796088424533376</v>
+        <v>0.2814247485902545</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>557</v>
@@ -8331,19 +8331,19 @@
         <v>588260</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>548973</v>
+        <v>540595</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>632011</v>
+        <v>629164</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2402709365997914</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2242244589271327</v>
+        <v>0.2208024391185615</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2581407308344519</v>
+        <v>0.256977935675242</v>
       </c>
     </row>
     <row r="53">
@@ -8360,19 +8360,19 @@
         <v>244539</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>216352</v>
+        <v>214765</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>277737</v>
+        <v>272105</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1726558091181139</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1527546199995671</v>
+        <v>0.1516343172124934</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1960955147887831</v>
+        <v>0.1921189619949118</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>190</v>
@@ -8381,19 +8381,19 @@
         <v>194030</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>170194</v>
+        <v>167918</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>221503</v>
+        <v>221662</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1880170599121515</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1649195533599453</v>
+        <v>0.1627141238929888</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.214637981870043</v>
+        <v>0.2147922964378869</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>419</v>
@@ -8402,19 +8402,19 @@
         <v>438569</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>402996</v>
+        <v>402636</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>478352</v>
+        <v>482728</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1791306731474052</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1646013658404589</v>
+        <v>0.1644540421049672</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1953798190031194</v>
+        <v>0.1971672914375739</v>
       </c>
     </row>
     <row r="54">
@@ -8431,19 +8431,19 @@
         <v>426887</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>389511</v>
+        <v>391689</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>462794</v>
+        <v>463272</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3014024140017686</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2750130688084947</v>
+        <v>0.2765509700683779</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3267539252927733</v>
+        <v>0.3270913127634762</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>297</v>
@@ -8452,19 +8452,19 @@
         <v>300983</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>273497</v>
+        <v>274960</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>335514</v>
+        <v>333680</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2916550932061491</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2650209434403253</v>
+        <v>0.2664389779249661</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3251158255631336</v>
+        <v>0.3233390920975265</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>692</v>
@@ -8473,19 +8473,19 @@
         <v>727870</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>685342</v>
+        <v>683275</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>772636</v>
+        <v>776989</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2972938568505491</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2799237628283521</v>
+        <v>0.2790794279545913</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3155781639794837</v>
+        <v>0.3173562666385464</v>
       </c>
     </row>
     <row r="55">
@@ -8502,19 +8502,19 @@
         <v>257109</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>227805</v>
+        <v>223879</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>287463</v>
+        <v>286813</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1815311899661768</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1608408595389476</v>
+        <v>0.1580692590286832</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2029625542876175</v>
+        <v>0.2025033376148514</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>173</v>
@@ -8523,19 +8523,19 @@
         <v>179170</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>155425</v>
+        <v>155282</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>203215</v>
+        <v>204132</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1736178372774181</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1506079745434218</v>
+        <v>0.1504692981961596</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.19691690317254</v>
+        <v>0.1978061755745335</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>415</v>
@@ -8544,19 +8544,19 @@
         <v>436280</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>400779</v>
+        <v>400223</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>479535</v>
+        <v>477899</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1781956619312185</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1636954980084617</v>
+        <v>0.1634684711530223</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1958630974242647</v>
+        <v>0.1951948960143904</v>
       </c>
     </row>
     <row r="56">
@@ -8573,19 +8573,19 @@
         <v>159996</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>136487</v>
+        <v>137326</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>184460</v>
+        <v>185706</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1129643095039631</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.09636586941005647</v>
+        <v>0.09695873126030964</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1302377063382563</v>
+        <v>0.1311171777921776</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>95</v>
@@ -8594,19 +8594,19 @@
         <v>97345</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>79818</v>
+        <v>82048</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>119750</v>
+        <v>117637</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.09432772452319305</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.07734482028223254</v>
+        <v>0.07950545533022808</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1160388330650902</v>
+        <v>0.11399166491081</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>242</v>
@@ -8615,19 +8615,19 @@
         <v>257340</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>228863</v>
+        <v>228496</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>290540</v>
+        <v>291231</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1051088714710358</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.09347746243529492</v>
+        <v>0.09332768279428919</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1186693391423329</v>
+        <v>0.1189516115668698</v>
       </c>
     </row>
     <row r="57">
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14356</v>
+        <v>13341</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09391576258185946</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3515097964778153</v>
+        <v>0.3266505468144414</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -8984,19 +8984,19 @@
         <v>1998</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5315</v>
+        <v>5081</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06103655850943342</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01739946045224033</v>
+        <v>0.01627574408331689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1623327988824696</v>
+        <v>0.1551848692584394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -9005,19 +9005,19 @@
         <v>5834</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1648</v>
+        <v>1693</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15379</v>
+        <v>16507</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07928590798424572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02239155667142291</v>
+        <v>0.0230140664684474</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2090054842054423</v>
+        <v>0.2243302789215386</v>
       </c>
     </row>
     <row r="5">
@@ -9034,19 +9034,19 @@
         <v>15566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9783</v>
+        <v>9545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22761</v>
+        <v>22446</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3811268178501419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2395428144738837</v>
+        <v>0.2337097513843454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5573182049909502</v>
+        <v>0.5495875369242327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -9055,19 +9055,19 @@
         <v>9463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5858</v>
+        <v>5812</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14216</v>
+        <v>13669</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2890111462648349</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1789077971499252</v>
+        <v>0.1775116953640496</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4341894837156454</v>
+        <v>0.4174971506376739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -9076,19 +9076,19 @@
         <v>25028</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17143</v>
+        <v>18119</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32854</v>
+        <v>33303</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3401392416762779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2329840944273254</v>
+        <v>0.2462423900324195</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4464903616686789</v>
+        <v>0.4526030748888463</v>
       </c>
     </row>
     <row r="6">
@@ -9105,19 +9105,19 @@
         <v>14490</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8860</v>
+        <v>8512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20327</v>
+        <v>21191</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3547808555978871</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2169344562454482</v>
+        <v>0.2084126936706429</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4977168050018453</v>
+        <v>0.5188711160646641</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -9126,19 +9126,19 @@
         <v>19693</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14813</v>
+        <v>15591</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23860</v>
+        <v>24061</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6014692623750303</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.452435763835391</v>
+        <v>0.4761942425231323</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7287531561621287</v>
+        <v>0.7348784042789361</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -9147,19 +9147,19 @@
         <v>34182</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26079</v>
+        <v>26324</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42518</v>
+        <v>42275</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4645467585107645</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.354417898752085</v>
+        <v>0.3577508200464645</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5778289990307852</v>
+        <v>0.5745228714908469</v>
       </c>
     </row>
     <row r="7">
@@ -9176,19 +9176,19 @@
         <v>6950</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2878</v>
+        <v>2728</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14970</v>
+        <v>14402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1701765639701116</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07045770208984917</v>
+        <v>0.06679239223707156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3665396052395299</v>
+        <v>0.3526356855098959</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5159</v>
+        <v>5551</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0484830328507014</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1575642801879182</v>
+        <v>0.169545536656559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -9218,19 +9218,19 @@
         <v>8538</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4055</v>
+        <v>3815</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16583</v>
+        <v>15893</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.116028091828712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05510605181993142</v>
+        <v>0.05184228380950602</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2253684053140153</v>
+        <v>0.2159908109025127</v>
       </c>
     </row>
     <row r="8">
@@ -9369,19 +9369,19 @@
         <v>17375</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9461</v>
+        <v>9778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26812</v>
+        <v>26111</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.335482497718151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.182671587678186</v>
+        <v>0.188800698969571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5176923370994412</v>
+        <v>0.5041529437322145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -9390,19 +9390,19 @@
         <v>13046</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8546</v>
+        <v>8054</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19189</v>
+        <v>19168</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3030841924498019</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1985521860443754</v>
+        <v>0.187118178922227</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4457904259168744</v>
+        <v>0.44532035366442</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -9411,19 +9411,19 @@
         <v>30421</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20528</v>
+        <v>20846</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40818</v>
+        <v>41457</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3207774428488407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2164590312276201</v>
+        <v>0.2198163852366005</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4304113555480101</v>
+        <v>0.4371442146699676</v>
       </c>
     </row>
     <row r="11">
@@ -9440,19 +9440,19 @@
         <v>8336</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3941</v>
+        <v>2990</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15689</v>
+        <v>16651</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1609463759485767</v>
+        <v>0.1609463759485768</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07610294426886048</v>
+        <v>0.05773313870459189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3029273240790665</v>
+        <v>0.3214991489121898</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -9461,19 +9461,19 @@
         <v>9376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5172</v>
+        <v>4913</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14666</v>
+        <v>14610</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2178148197243259</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1201533183418955</v>
+        <v>0.1141425793334202</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3407118254089065</v>
+        <v>0.3394205852030217</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -9482,19 +9482,19 @@
         <v>17711</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10641</v>
+        <v>10480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25787</v>
+        <v>26893</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1867580219321596</v>
+        <v>0.1867580219321597</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.112208221724141</v>
+        <v>0.1105082456637706</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2719194824113844</v>
+        <v>0.2835725368932326</v>
       </c>
     </row>
     <row r="12">
@@ -9511,19 +9511,19 @@
         <v>14121</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6183</v>
+        <v>7139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23230</v>
+        <v>24377</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2726582157468786</v>
+        <v>0.2726582157468787</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1193774157768404</v>
+        <v>0.1378431588162319</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4485309584889119</v>
+        <v>0.4706710485165699</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -9532,19 +9532,19 @@
         <v>8098</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4020</v>
+        <v>4193</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13542</v>
+        <v>13670</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1881398960754728</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09339532234939323</v>
+        <v>0.0974108805491618</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.314610919730556</v>
+        <v>0.3175795129319499</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -9553,19 +9553,19 @@
         <v>22220</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13316</v>
+        <v>14165</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32964</v>
+        <v>33243</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2342967484437076</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.140409444411716</v>
+        <v>0.1493632597540024</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3475904139793336</v>
+        <v>0.3505314198153142</v>
       </c>
     </row>
     <row r="13">
@@ -9582,19 +9582,19 @@
         <v>6801</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2484</v>
+        <v>2284</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14551</v>
+        <v>13374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1313218742241815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04795583114831498</v>
+        <v>0.04410121007023608</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2809580091654386</v>
+        <v>0.2582345851086211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -9603,19 +9603,19 @@
         <v>3369</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8117</v>
+        <v>8389</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07827357941794258</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02058120775037271</v>
+        <v>0.02005197075605595</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.188582771083436</v>
+        <v>0.1948892599947473</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -9624,19 +9624,19 @@
         <v>10170</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4984</v>
+        <v>5193</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19767</v>
+        <v>18721</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1072441306697626</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05254940635084143</v>
+        <v>0.05475634889486337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2084346382675774</v>
+        <v>0.1974083303115829</v>
       </c>
     </row>
     <row r="14">
@@ -9653,19 +9653,19 @@
         <v>5158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1284</v>
+        <v>1319</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12103</v>
+        <v>11371</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09959103636221217</v>
+        <v>0.09959103636221216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02478653193098556</v>
+        <v>0.02546424177448408</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2336895661805218</v>
+        <v>0.2195595414151176</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -9674,19 +9674,19 @@
         <v>9155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4652</v>
+        <v>4586</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15191</v>
+        <v>15716</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2126875123324569</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1080771488387074</v>
+        <v>0.1065519355201176</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3529172913667157</v>
+        <v>0.3651190105382595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -9695,19 +9695,19 @@
         <v>14313</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7702</v>
+        <v>8467</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22973</v>
+        <v>23091</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1509236561055294</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08121965071038288</v>
+        <v>0.08928054082480631</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2422468226626659</v>
+        <v>0.2434864183219498</v>
       </c>
     </row>
     <row r="15">
@@ -9799,19 +9799,19 @@
         <v>8131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3858</v>
+        <v>3903</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13915</v>
+        <v>14025</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2822861382762005</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1339469596410435</v>
+        <v>0.1355001945378992</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4830910930465292</v>
+        <v>0.4869043065148074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -9820,19 +9820,19 @@
         <v>7628</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3927</v>
+        <v>3650</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12865</v>
+        <v>12570</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2629655012078881</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1353833094135097</v>
+        <v>0.1258272860669777</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4435101879726698</v>
+        <v>0.4333411619938444</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -9841,19 +9841,19 @@
         <v>15759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9598</v>
+        <v>10005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23057</v>
+        <v>23277</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2725920445091983</v>
+        <v>0.2725920445091984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1660242132691864</v>
+        <v>0.1730584376447812</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3988217800001712</v>
+        <v>0.4026366684538837</v>
       </c>
     </row>
     <row r="17">
@@ -9870,19 +9870,19 @@
         <v>4390</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1134</v>
+        <v>1174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9495</v>
+        <v>10690</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.152394960190678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03936118690147278</v>
+        <v>0.04074179008268448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.329637631393652</v>
+        <v>0.3711143501309879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -9891,19 +9891,19 @@
         <v>4558</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8808</v>
+        <v>9030</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1571363867040913</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07071619399269051</v>
+        <v>0.07054567338392306</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3036370939293543</v>
+        <v>0.3113070250823604</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -9912,19 +9912,19 @@
         <v>8948</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4879</v>
+        <v>4584</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15541</v>
+        <v>14845</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1547739621380705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08438679711276421</v>
+        <v>0.07929484714825036</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2688124424521143</v>
+        <v>0.2567781986634517</v>
       </c>
     </row>
     <row r="18">
@@ -9941,19 +9941,19 @@
         <v>10555</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5840</v>
+        <v>5929</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16151</v>
+        <v>16567</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3664387369198055</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2027523626782742</v>
+        <v>0.205832747207479</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5607078249730872</v>
+        <v>0.5751522935763351</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -9962,19 +9962,19 @@
         <v>8348</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4477</v>
+        <v>4696</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12960</v>
+        <v>13482</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2877851986581459</v>
+        <v>0.2877851986581458</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1543354721332501</v>
+        <v>0.1618791284052813</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4467926906057915</v>
+        <v>0.464772984648014</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -9983,19 +9983,19 @@
         <v>18903</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12644</v>
+        <v>12734</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26565</v>
+        <v>26224</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3269744701712959</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2187130357362321</v>
+        <v>0.2202666310115015</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4595148437223736</v>
+        <v>0.4536020497742766</v>
       </c>
     </row>
     <row r="19">
@@ -10012,19 +10012,19 @@
         <v>4778</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1818</v>
+        <v>1764</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9952</v>
+        <v>8988</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1658788733555976</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06311518194849711</v>
+        <v>0.06125123748888481</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3455050991184794</v>
+        <v>0.3120125565587715</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -10033,19 +10033,19 @@
         <v>6568</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3155</v>
+        <v>3504</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10589</v>
+        <v>10740</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2264156170797622</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1087577383265684</v>
+        <v>0.1208057386900609</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3650546202719875</v>
+        <v>0.3702703753740108</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -10054,19 +10054,19 @@
         <v>11346</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6725</v>
+        <v>6899</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17303</v>
+        <v>17493</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1962530720911827</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1163232110405102</v>
+        <v>0.1193435578287415</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2992997902953924</v>
+        <v>0.3025791072868158</v>
       </c>
     </row>
     <row r="20">
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6668</v>
+        <v>4740</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03300129125771844</v>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2314917187449755</v>
+        <v>0.1645643286581088</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -10104,19 +10104,19 @@
         <v>1906</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4752</v>
+        <v>4982</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0656972963501125</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01685053046551706</v>
+        <v>0.0177544866289691</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1638190217635173</v>
+        <v>0.1717369750650365</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -10125,19 +10125,19 @@
         <v>2856</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6628</v>
+        <v>7330</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04940645109025261</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01188099397360207</v>
+        <v>0.01216084398733996</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1146465617081407</v>
+        <v>0.1267981189797616</v>
       </c>
     </row>
     <row r="21">
@@ -10229,19 +10229,19 @@
         <v>33610</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20720</v>
+        <v>21441</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45417</v>
+        <v>45305</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4927070147847489</v>
+        <v>0.4927070147847487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3037500313758432</v>
+        <v>0.3143173701266221</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6657979378300671</v>
+        <v>0.6641442279934174</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -10250,19 +10250,19 @@
         <v>22620</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15421</v>
+        <v>14746</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29486</v>
+        <v>29637</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4888709774470141</v>
+        <v>0.488870977447014</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3332993417557734</v>
+        <v>0.3186978859568317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.637283247498732</v>
+        <v>0.6405389624805109</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -10271,19 +10271,19 @@
         <v>56230</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40697</v>
+        <v>42907</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70844</v>
+        <v>70146</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4911566599107148</v>
+        <v>0.4911566599107147</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.355481214042369</v>
+        <v>0.3747875649024932</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6188091998751365</v>
+        <v>0.6127119603026154</v>
       </c>
     </row>
     <row r="23">
@@ -10303,16 +10303,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8243</v>
+        <v>7233</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.02243377473576131</v>
+        <v>0.0224337747357613</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1208442141795752</v>
+        <v>0.1060256079011725</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -10321,19 +10321,19 @@
         <v>3524</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>956</v>
+        <v>1033</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8139</v>
+        <v>8389</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.07615718854455243</v>
+        <v>0.07615718854455242</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02066055300112042</v>
+        <v>0.0223222404250294</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1758966995271689</v>
+        <v>0.1813059156921649</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -10342,19 +10342,19 @@
         <v>5054</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1624</v>
+        <v>1755</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11491</v>
+        <v>12030</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04414637790280738</v>
+        <v>0.04414637790280737</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01418773275870071</v>
+        <v>0.01532956119527806</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1003735068021584</v>
+        <v>0.1050837659134527</v>
       </c>
     </row>
     <row r="24">
@@ -10371,19 +10371,19 @@
         <v>10703</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4356</v>
+        <v>5203</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23477</v>
+        <v>22708</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1568979937943574</v>
+        <v>0.1568979937943573</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06386019951174431</v>
+        <v>0.07626854676717483</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3441672984314429</v>
+        <v>0.3328950317473818</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -10392,19 +10392,19 @@
         <v>7774</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3634</v>
+        <v>3286</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17742</v>
+        <v>16401</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.168023389289621</v>
+        <v>0.1680233892896209</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07853127447785543</v>
+        <v>0.07102870213043898</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3834444741049263</v>
+        <v>0.3544664694062025</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -10413,19 +10413,19 @@
         <v>18477</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10373</v>
+        <v>9963</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31863</v>
+        <v>31216</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1613943815020494</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09060265873668659</v>
+        <v>0.08702320433396678</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2783192201077619</v>
+        <v>0.2726708703935433</v>
       </c>
     </row>
     <row r="25">
@@ -10442,19 +10442,19 @@
         <v>12251</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4720</v>
+        <v>3300</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27192</v>
+        <v>24778</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.179591076703385</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06919299623223051</v>
+        <v>0.0483836236961146</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3986260469626109</v>
+        <v>0.3632364912817418</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -10463,19 +10463,19 @@
         <v>7626</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3503</v>
+        <v>3733</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13933</v>
+        <v>14737</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1648238551977825</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07570576889934828</v>
+        <v>0.08067341802950886</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3011214122024519</v>
+        <v>0.3185071173046191</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -10484,19 +10484,19 @@
         <v>19877</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10778</v>
+        <v>10882</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34470</v>
+        <v>33616</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1736228256616288</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09413985095901525</v>
+        <v>0.09505223949781307</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3010859032399524</v>
+        <v>0.2936337820405466</v>
       </c>
     </row>
     <row r="26">
@@ -10513,19 +10513,19 @@
         <v>10121</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3266</v>
+        <v>3123</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21913</v>
+        <v>22478</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1483701399817476</v>
+        <v>0.1483701399817475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04787691743896014</v>
+        <v>0.04578081259592714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3212283155972291</v>
+        <v>0.3295109449653107</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -10534,19 +10534,19 @@
         <v>4725</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1645</v>
+        <v>1466</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10799</v>
+        <v>10501</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1021245895210302</v>
+        <v>0.1021245895210301</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03556359601882476</v>
+        <v>0.03167691339251053</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2333976938738122</v>
+        <v>0.2269658384417102</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -10555,19 +10555,19 @@
         <v>14846</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7389</v>
+        <v>7392</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28705</v>
+        <v>27783</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1296797550227997</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06453883386787221</v>
+        <v>0.06456510193064523</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2507331439596447</v>
+        <v>0.2426774960389729</v>
       </c>
     </row>
     <row r="27">
@@ -10659,19 +10659,19 @@
         <v>11342</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7095</v>
+        <v>7076</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15860</v>
+        <v>15473</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5115624249508653</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3200180307428249</v>
+        <v>0.3191506175228315</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7153129899634459</v>
+        <v>0.6978779922387147</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -10680,19 +10680,19 @@
         <v>15827</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11622</v>
+        <v>11701</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19312</v>
+        <v>19220</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6802816885241599</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4995627252930433</v>
+        <v>0.5029506180187147</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8301095397849249</v>
+        <v>0.8261342721827658</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>43</v>
@@ -10701,19 +10701,19 @@
         <v>27169</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21223</v>
+        <v>21328</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32454</v>
+        <v>32799</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5979513755357834</v>
+        <v>0.5979513755357833</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4670945064346273</v>
+        <v>0.4693975236628846</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.714256538892643</v>
+        <v>0.7218621260559479</v>
       </c>
     </row>
     <row r="29">
@@ -10730,19 +10730,19 @@
         <v>3734</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7165</v>
+        <v>7744</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1684310746700248</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06242750986178046</v>
+        <v>0.06247187717330877</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3231748721001076</v>
+        <v>0.3492534508324758</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -10751,19 +10751,19 @@
         <v>4299</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1657</v>
+        <v>1613</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8603</v>
+        <v>8468</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1847882344688208</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07124101725403392</v>
+        <v>0.06932361798256094</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3697669710072986</v>
+        <v>0.3639869004924209</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -10772,19 +10772,19 @@
         <v>8034</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4269</v>
+        <v>4005</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13812</v>
+        <v>14357</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1768063949484584</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09395218134233853</v>
+        <v>0.08815199358505917</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3039900961238239</v>
+        <v>0.3159789374439013</v>
       </c>
     </row>
     <row r="30">
@@ -10801,19 +10801,19 @@
         <v>4248</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1525</v>
+        <v>1498</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8287</v>
+        <v>8312</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.19160786092859</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06879919411507739</v>
+        <v>0.06757157081249278</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3737791726228414</v>
+        <v>0.374896255735625</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -10822,19 +10822,19 @@
         <v>1899</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5100</v>
+        <v>5613</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.08163203312442407</v>
+        <v>0.08163203312442409</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01914837865892706</v>
+        <v>0.01877609050359225</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2192259880401921</v>
+        <v>0.2412739653556434</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -10843,19 +10843,19 @@
         <v>6147</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2862</v>
+        <v>3205</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11600</v>
+        <v>11387</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1352971815639764</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06298840444429332</v>
+        <v>0.07053573085635526</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2552954282619295</v>
+        <v>0.2506170806761774</v>
       </c>
     </row>
     <row r="31">
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6550</v>
+        <v>6407</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09325099531438043</v>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2954070223302141</v>
+        <v>0.2889850363702157</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4230</v>
+        <v>4172</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05329804388259497</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1818300789936675</v>
+        <v>0.1793110339396393</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -10914,19 +10914,19 @@
         <v>3308</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8598</v>
+        <v>8748</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.07279397414286051</v>
+        <v>0.0727939741428605</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01770661631790795</v>
+        <v>0.01716242751111426</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1892310273825396</v>
+        <v>0.1925286722068375</v>
       </c>
     </row>
     <row r="32">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3876</v>
+        <v>3331</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03514764413613931</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1747968284596916</v>
+        <v>0.1502268850263181</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4075</v>
+        <v>4229</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01715107380892136</v>
+        <v>0.01715107380892135</v>
       </c>
       <c r="V32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08967817908852159</v>
+        <v>0.09306519743721338</v>
       </c>
     </row>
     <row r="33">
@@ -11081,19 +11081,19 @@
         <v>13991</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9054</v>
+        <v>8483</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19620</v>
+        <v>19310</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.4181272037093975</v>
+        <v>0.4181272037093976</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2705827576921856</v>
+        <v>0.2535383777052304</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.586385822322199</v>
+        <v>0.5771198587622646</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -11102,19 +11102,19 @@
         <v>6095</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2977</v>
+        <v>2714</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10456</v>
+        <v>10166</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3076783978996249</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1502864245073858</v>
+        <v>0.1369707872158293</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5278088839023127</v>
+        <v>0.5131536415395748</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>22</v>
@@ -11123,19 +11123,19 @@
         <v>20086</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14143</v>
+        <v>13264</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26873</v>
+        <v>26362</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3770522777877277</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2654885534585663</v>
+        <v>0.2489920634892924</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5044553363872663</v>
+        <v>0.4948647693670236</v>
       </c>
     </row>
     <row r="35">
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4973</v>
+        <v>4761</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04538262174749961</v>
@@ -11164,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1486390011193615</v>
+        <v>0.1422901466897892</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -11173,19 +11173,19 @@
         <v>2379</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>724</v>
+        <v>596</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6222</v>
+        <v>5768</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1201071390617841</v>
+        <v>0.120107139061784</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03655263031546119</v>
+        <v>0.03006555621050697</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3140735982355707</v>
+        <v>0.2911270261670298</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -11194,19 +11194,19 @@
         <v>3898</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8650</v>
+        <v>8813</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07317200335931232</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02599861347205031</v>
+        <v>0.02604224314920808</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1623833558448418</v>
+        <v>0.16544010316664</v>
       </c>
     </row>
     <row r="36">
@@ -11223,19 +11223,19 @@
         <v>12267</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6657</v>
+        <v>6964</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17592</v>
+        <v>17866</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3666271904780711</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1989540436263356</v>
+        <v>0.2081233791660157</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5257679367844995</v>
+        <v>0.5339627911996341</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -11244,19 +11244,19 @@
         <v>4780</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2038</v>
+        <v>2130</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8282</v>
+        <v>8528</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2412680947621584</v>
+        <v>0.2412680947621583</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1028772040382848</v>
+        <v>0.1075361006906125</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4180700247674186</v>
+        <v>0.4304427195453656</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -11265,19 +11265,19 @@
         <v>17047</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11076</v>
+        <v>11270</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>23515</v>
+        <v>24258</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3200072607071053</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2079225537208967</v>
+        <v>0.211551454018124</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4414128667788194</v>
+        <v>0.4553636691235006</v>
       </c>
     </row>
     <row r="37">
@@ -11294,19 +11294,19 @@
         <v>4856</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1672</v>
+        <v>2198</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10031</v>
+        <v>9161</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1451414180506877</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04998047737089628</v>
+        <v>0.06567994246193229</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2997891496490854</v>
+        <v>0.2738026880347931</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -11315,19 +11315,19 @@
         <v>5987</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3076</v>
+        <v>2954</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10168</v>
+        <v>10181</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3022096984862419</v>
+        <v>0.3022096984862418</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1552902713901957</v>
+        <v>0.1491042174194389</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5132607556725164</v>
+        <v>0.5138997672391039</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>15</v>
@@ -11336,19 +11336,19 @@
         <v>10844</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6307</v>
+        <v>6363</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>16397</v>
+        <v>16593</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2035537108431156</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1184017773965397</v>
+        <v>0.119443296970969</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3078056115936814</v>
+        <v>0.311482927571794</v>
       </c>
     </row>
     <row r="38">
@@ -11368,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02472156601434412</v>
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1262605561533402</v>
+        <v>0.1263138038264718</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2964</v>
+        <v>3317</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02873666979019075</v>
@@ -11398,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1496088882130235</v>
+        <v>0.1674230516126915</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5195</v>
+        <v>5233</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02621474730273904</v>
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09752121750972942</v>
+        <v>0.09823674799398845</v>
       </c>
     </row>
     <row r="39">
@@ -11511,19 +11511,19 @@
         <v>45462</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>34781</v>
+        <v>34941</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>57205</v>
+        <v>55882</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.4973421055420237</v>
+        <v>0.4973421055420236</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3804991904213512</v>
+        <v>0.3822471873755403</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6258130621783256</v>
+        <v>0.6113408027581739</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>45</v>
@@ -11532,19 +11532,19 @@
         <v>36567</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>28715</v>
+        <v>28363</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>46296</v>
+        <v>45758</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.3922861569640612</v>
+        <v>0.3922861569640614</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3080521012909449</v>
+        <v>0.3042732501204998</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4966532511082998</v>
+        <v>0.4908840573208364</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>82</v>
@@ -11553,19 +11553,19 @@
         <v>82029</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>68691</v>
+        <v>68570</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>96530</v>
+        <v>95667</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.444300076854503</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3720551863883956</v>
+        <v>0.3714002263918948</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5228461428532821</v>
+        <v>0.5181717080992044</v>
       </c>
     </row>
     <row r="41">
@@ -11582,19 +11582,19 @@
         <v>8306</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3431</v>
+        <v>3617</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15860</v>
+        <v>16146</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.09086653734888692</v>
+        <v>0.09086653734888689</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03753608737246154</v>
+        <v>0.03957048611486434</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1735061421233462</v>
+        <v>0.1766396557998683</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>15</v>
@@ -11603,19 +11603,19 @@
         <v>12080</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6865</v>
+        <v>6883</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>18337</v>
+        <v>19208</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1295926147516261</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07364918082183583</v>
+        <v>0.07383833465690372</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1967140641202127</v>
+        <v>0.2060594887268435</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>22</v>
@@ -11624,19 +11624,19 @@
         <v>20386</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>12977</v>
+        <v>12959</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>30074</v>
+        <v>30781</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1104190685130492</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07028990445678665</v>
+        <v>0.07019122738734859</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1628942605953907</v>
+        <v>0.1667200097704182</v>
       </c>
     </row>
     <row r="42">
@@ -11653,19 +11653,19 @@
         <v>16969</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9621</v>
+        <v>9688</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>27064</v>
+        <v>26733</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.185635266833097</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1052549363472445</v>
+        <v>0.1059847400784621</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2960726408157487</v>
+        <v>0.2924508634505061</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>19</v>
@@ -11674,19 +11674,19 @@
         <v>15023</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>9415</v>
+        <v>9411</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>22024</v>
+        <v>22413</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.1611595847893623</v>
+        <v>0.1611595847893624</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1010060022492105</v>
+        <v>0.1009597800546875</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2362733383717313</v>
+        <v>0.2404392797072619</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>33</v>
@@ -11695,19 +11695,19 @@
         <v>31991</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>22739</v>
+        <v>23045</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>43960</v>
+        <v>44471</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1732776626547198</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1231634948746848</v>
+        <v>0.1248182663085547</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.238105380960757</v>
+        <v>0.2408735630305507</v>
       </c>
     </row>
     <row r="43">
@@ -11727,16 +11727,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>13720</v>
+        <v>13678</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.03942684790253405</v>
+        <v>0.03942684790253403</v>
       </c>
       <c r="H43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1500993428531021</v>
+        <v>0.149635728695787</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>10</v>
@@ -11745,19 +11745,19 @@
         <v>8222</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>4194</v>
+        <v>4416</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>14796</v>
+        <v>15064</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.08820392237485213</v>
+        <v>0.08820392237485217</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04499258383596514</v>
+        <v>0.04737899720493203</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1587327432003082</v>
+        <v>0.1616021551820285</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>12</v>
@@ -11766,19 +11766,19 @@
         <v>11826</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>6241</v>
+        <v>6059</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>21660</v>
+        <v>20289</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.06405405862667533</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03380484710946875</v>
+        <v>0.03281956797201614</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1173176780382289</v>
+        <v>0.1098923422463939</v>
       </c>
     </row>
     <row r="44">
@@ -11795,19 +11795,19 @@
         <v>17069</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9956</v>
+        <v>9457</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26845</v>
+        <v>28305</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1867292423734584</v>
+        <v>0.1867292423734583</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1089221480901861</v>
+        <v>0.103453464722004</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2936821242446711</v>
+        <v>0.3096470779472358</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>26</v>
@@ -11816,19 +11816,19 @@
         <v>21324</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>15264</v>
+        <v>14538</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>29993</v>
+        <v>29067</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.2287577211200981</v>
+        <v>0.2287577211200982</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1637537692310193</v>
+        <v>0.1559635497778984</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3217628385157311</v>
+        <v>0.3118249833197769</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>39</v>
@@ -11837,19 +11837,19 @@
         <v>38393</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>27960</v>
+        <v>27390</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>51841</v>
+        <v>51267</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2079491333510527</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1514424607199346</v>
+        <v>0.1483544152297283</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2807903678159405</v>
+        <v>0.2776811228524952</v>
       </c>
     </row>
     <row r="45">
@@ -11941,19 +11941,19 @@
         <v>38265</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>27150</v>
+        <v>26501</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>50740</v>
+        <v>51509</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2795200802347089</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1983252668220641</v>
+        <v>0.1935844065734162</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3706501399093468</v>
+        <v>0.3762670294362208</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>28</v>
@@ -11962,19 +11962,19 @@
         <v>24547</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>16926</v>
+        <v>17362</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>32400</v>
+        <v>33243</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.245572593836655</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1693290460679955</v>
+        <v>0.1736911258871986</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3241338975393653</v>
+        <v>0.3325643609303824</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>58</v>
@@ -11983,19 +11983,19 @@
         <v>62812</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>49205</v>
+        <v>49071</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>76668</v>
+        <v>77287</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2651931814462341</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2077424569239124</v>
+        <v>0.2071767855999478</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3236918728706309</v>
+        <v>0.3263032484212229</v>
       </c>
     </row>
     <row r="47">
@@ -12012,19 +12012,19 @@
         <v>25814</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>17513</v>
+        <v>16813</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>38387</v>
+        <v>36905</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1885657206879222</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1279305854227658</v>
+        <v>0.1228168357114548</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2804096218233335</v>
+        <v>0.269589417307145</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>22</v>
@@ -12033,19 +12033,19 @@
         <v>17825</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>11991</v>
+        <v>11810</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>25371</v>
+        <v>25450</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1783254989893892</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.119957739571864</v>
+        <v>0.1181514610426335</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2538108590208667</v>
+        <v>0.2545997363250923</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>45</v>
@@ -12054,19 +12054,19 @@
         <v>43639</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>32910</v>
+        <v>32392</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>58119</v>
+        <v>57187</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.1842440275255432</v>
+        <v>0.1842440275255431</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.138944951146089</v>
+        <v>0.1367572917051673</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2453787715132419</v>
+        <v>0.241443536212098</v>
       </c>
     </row>
     <row r="48">
@@ -12083,19 +12083,19 @@
         <v>41621</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>30410</v>
+        <v>30397</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>54605</v>
+        <v>54103</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3040337414584173</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2221392677298116</v>
+        <v>0.2220456448085644</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3988820180351998</v>
+        <v>0.3952139442245841</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>44</v>
@@ -12104,19 +12104,19 @@
         <v>37708</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>29442</v>
+        <v>28766</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>48102</v>
+        <v>46392</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.3772289125307441</v>
+        <v>0.377228912530744</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2945412163746896</v>
+        <v>0.2877798981598447</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.481213928938981</v>
+        <v>0.4641029869512558</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>78</v>
@@ -12125,19 +12125,19 @@
         <v>79329</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>64929</v>
+        <v>65475</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>96747</v>
+        <v>95040</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3349243881314046</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2741310940265209</v>
+        <v>0.2764362995076489</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4084660807810702</v>
+        <v>0.4012574437152047</v>
       </c>
     </row>
     <row r="49">
@@ -12154,19 +12154,19 @@
         <v>21736</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>12630</v>
+        <v>14131</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>32322</v>
+        <v>33794</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1587771663521027</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.09226208743400446</v>
+        <v>0.1032255758527976</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2361109614863992</v>
+        <v>0.2468630047986956</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>20</v>
@@ -12175,19 +12175,19 @@
         <v>15600</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>9888</v>
+        <v>9795</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>23546</v>
+        <v>23191</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.156061671574198</v>
+        <v>0.1560616715741979</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.09892314029323473</v>
+        <v>0.0979924937647816</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2355580204325918</v>
+        <v>0.2320005598893952</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>37</v>
@@ -12196,19 +12196,19 @@
         <v>37336</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>25467</v>
+        <v>26334</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>50057</v>
+        <v>51539</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1576311428030395</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1075194738520723</v>
+        <v>0.1111832390784284</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2113382643374216</v>
+        <v>0.2175978230223773</v>
       </c>
     </row>
     <row r="50">
@@ -12225,19 +12225,19 @@
         <v>9460</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>4056</v>
+        <v>4279</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>18434</v>
+        <v>18970</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.06910329126684873</v>
+        <v>0.06910329126684872</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02962796075068586</v>
+        <v>0.03125475441818765</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1346592098269858</v>
+        <v>0.1385752690924133</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>5</v>
@@ -12246,19 +12246,19 @@
         <v>4279</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1591</v>
+        <v>1551</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>9800</v>
+        <v>9485</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.04281132306901376</v>
+        <v>0.04281132306901375</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01591454980418599</v>
+        <v>0.01551535682068611</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.09804021728143858</v>
+        <v>0.09488446497876507</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>12</v>
@@ -12267,19 +12267,19 @@
         <v>13739</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>7278</v>
+        <v>7774</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>23102</v>
+        <v>23279</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.05800726009377864</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.03072573464862994</v>
+        <v>0.03282020432391263</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.09753501229655492</v>
+        <v>0.09828468764463241</v>
       </c>
     </row>
     <row r="51">
@@ -12371,19 +12371,19 @@
         <v>172011</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>146707</v>
+        <v>148606</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>196844</v>
+        <v>197788</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.3632084250113634</v>
+        <v>0.3632084250113633</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.3097773949325026</v>
+        <v>0.3137873401117113</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.415643445057971</v>
+        <v>0.4176371309000324</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>163</v>
@@ -12392,19 +12392,19 @@
         <v>128329</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>110243</v>
+        <v>111855</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>144146</v>
+        <v>147374</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.3313308151498309</v>
+        <v>0.3313308151498308</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2846364656762161</v>
+        <v>0.2887972183136479</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3721685228480188</v>
+        <v>0.3805043001358117</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>299</v>
@@ -12413,19 +12413,19 @@
         <v>300340</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>273070</v>
+        <v>272447</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>331304</v>
+        <v>333280</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.3488669091615429</v>
+        <v>0.348866909161543</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.3171915014836861</v>
+        <v>0.3164673823291085</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3848341346860037</v>
+        <v>0.3871295598121063</v>
       </c>
     </row>
     <row r="53">
@@ -12442,19 +12442,19 @@
         <v>69194</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>54472</v>
+        <v>54273</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>86719</v>
+        <v>86333</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1461057331759941</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1150199417280579</v>
+        <v>0.114599430354386</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1831102836574384</v>
+        <v>0.1822964596293325</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>84</v>
@@ -12463,19 +12463,19 @@
         <v>63504</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>51856</v>
+        <v>50832</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>78221</v>
+        <v>76256</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1639601948743682</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1338867185748152</v>
+        <v>0.1312422000329221</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2019586038412032</v>
+        <v>0.1968840676943794</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>148</v>
@@ -12484,19 +12484,19 @@
         <v>132698</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>113765</v>
+        <v>114327</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>156297</v>
+        <v>153652</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.1541383318102549</v>
+        <v>0.1541383318102548</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1321469377599215</v>
+        <v>0.1327995856999353</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1815505114520804</v>
+        <v>0.1784781804839281</v>
       </c>
     </row>
     <row r="54">
@@ -12513,19 +12513,19 @@
         <v>124974</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>104231</v>
+        <v>105034</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>146863</v>
+        <v>148643</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.2638878356438726</v>
+        <v>0.2638878356438725</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2200878824829799</v>
+        <v>0.2217834601845723</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3101067344461708</v>
+        <v>0.3138648241199442</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>136</v>
@@ -12534,19 +12534,19 @@
         <v>103322</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>89181</v>
+        <v>87351</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>120396</v>
+        <v>122004</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.2667672031680673</v>
+        <v>0.2667672031680672</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2302555522529277</v>
+        <v>0.2255309873181134</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3108485115265303</v>
+        <v>0.3150018380280989</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>244</v>
@@ -12555,19 +12555,19 @@
         <v>228297</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>200381</v>
+        <v>202610</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>255990</v>
+        <v>259346</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.2651832431466642</v>
+        <v>0.2651832431466643</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2327573191403977</v>
+        <v>0.2353469219224231</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2973515024309382</v>
+        <v>0.3012491864510294</v>
       </c>
     </row>
     <row r="55">
@@ -12584,19 +12584,19 @@
         <v>63044</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>47284</v>
+        <v>45591</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>85474</v>
+        <v>83813</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.1331202624044121</v>
+        <v>0.133120262404412</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.09984167106496039</v>
+        <v>0.09626796883427807</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1804826406365084</v>
+        <v>0.1769749464933172</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>65</v>
@@ -12605,19 +12605,19 @@
         <v>50200</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>39308</v>
+        <v>39439</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>63568</v>
+        <v>64750</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.1296098272188372</v>
+        <v>0.1296098272188371</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1014888612186844</v>
+        <v>0.1018277094135829</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1641248225023243</v>
+        <v>0.1671766838702843</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>113</v>
@@ -12626,19 +12626,19 @@
         <v>113244</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>92344</v>
+        <v>94080</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>134282</v>
+        <v>138245</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1315409419323825</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1072645623308978</v>
+        <v>0.1092803117295621</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1559786769363853</v>
+        <v>0.1605812921932915</v>
       </c>
     </row>
     <row r="56">
@@ -12655,19 +12655,19 @@
         <v>44365</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>30190</v>
+        <v>30659</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>63306</v>
+        <v>61433</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.09367774376435797</v>
+        <v>0.09367774376435796</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.06374774598109008</v>
+        <v>0.06473816358911368</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1336725039354565</v>
+        <v>0.1297177493045858</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>49</v>
@@ -12676,19 +12676,19 @@
         <v>41958</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>31735</v>
+        <v>32171</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>55041</v>
+        <v>56143</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.1083319595888966</v>
+        <v>0.1083319595888965</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.08193741847993055</v>
+        <v>0.08306141144072592</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1421087386563385</v>
+        <v>0.1449547649862827</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>81</v>
@@ -12697,19 +12697,19 @@
         <v>86323</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>67554</v>
+        <v>68216</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>107386</v>
+        <v>109596</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1002705739491554</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.07846912661396485</v>
+        <v>0.07923839827677745</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1247369762420731</v>
+        <v>0.1273038304391188</v>
       </c>
     </row>
     <row r="57">
